--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716681.640572886</v>
+        <v>-718464.5464327491</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918217</v>
+        <v>6028847.321918219</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.165107859198</v>
+        <v>303.1651078591981</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>71.25390308713841</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374288</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>332.959491363645</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>203.101330804285</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040933</v>
+        <v>23.94276850040937</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3816879599483</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741864</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>86.96444984558482</v>
       </c>
       <c r="C12" t="n">
-        <v>93.13976518403317</v>
+        <v>171.4600181765695</v>
       </c>
       <c r="D12" t="n">
-        <v>67.87633176035618</v>
+        <v>67.87633176035624</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>78.07634665111843</v>
       </c>
       <c r="F12" t="n">
-        <v>65.50047858910131</v>
+        <v>65.50047858910136</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6105413724854</v>
+        <v>56.29028837994822</v>
       </c>
       <c r="H12" t="n">
-        <v>18.32961418785544</v>
+        <v>18.3296141878555</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>64.54059415929277</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T12" t="n">
-        <v>114.6124383743876</v>
+        <v>194.1811721786702</v>
       </c>
       <c r="U12" t="n">
-        <v>146.2749841333383</v>
+        <v>225.8437179376209</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>172.1262493566371</v>
       </c>
       <c r="X12" t="n">
-        <v>126.2042513991949</v>
+        <v>126.204251399195</v>
       </c>
       <c r="Y12" t="n">
         <v>126.1139619730218</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.2632463776547</v>
+        <v>100.2632463776548</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434526</v>
+        <v>87.67808729434532</v>
       </c>
       <c r="D13" t="n">
-        <v>69.04673921392978</v>
+        <v>69.04673921392984</v>
       </c>
       <c r="E13" t="n">
-        <v>66.8652288422866</v>
+        <v>66.86522884228665</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85231421864867</v>
+        <v>65.85231421864873</v>
       </c>
       <c r="G13" t="n">
-        <v>87.17769483121776</v>
+        <v>87.17769483121783</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630858</v>
+        <v>71.59325136630865</v>
       </c>
       <c r="I13" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437114</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76513142968426</v>
+        <v>41.76513142968432</v>
       </c>
       <c r="S13" t="n">
         <v>122.7587393607691</v>
@@ -1585,16 +1585,16 @@
         <v>206.6824109673197</v>
       </c>
       <c r="V13" t="n">
-        <v>172.5689095195454</v>
+        <v>172.5689095195455</v>
       </c>
       <c r="W13" t="n">
-        <v>206.9542645323084</v>
+        <v>206.9542645323085</v>
       </c>
       <c r="X13" t="n">
         <v>146.1409215847546</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0159195478122</v>
+        <v>139.0159195478123</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.1651078591981</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>275.1143078164005</v>
       </c>
       <c r="E14" t="n">
-        <v>302.3616362679793</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>332.9594913636452</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.874929674534654</v>
       </c>
       <c r="I14" t="n">
-        <v>12.98306268050393</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="T14" t="n">
         <v>131.3816879599484</v>
@@ -1673,7 +1673,7 @@
         <v>290.1623668741865</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>144.4910973590712</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>84.11997663241354</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,7 +1704,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285295</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S15" t="n">
-        <v>64.54059415929282</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T15" t="n">
         <v>194.1811721786702</v>
@@ -1777,7 +1777,7 @@
         <v>65.85231421864873</v>
       </c>
       <c r="G16" t="n">
-        <v>87.17769483121783</v>
+        <v>87.17769483121782</v>
       </c>
       <c r="H16" t="n">
         <v>71.59325136630865</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76513142968432</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S16" t="n">
         <v>122.7587393607691</v>
@@ -1853,7 +1853,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F17" t="n">
-        <v>247.7385781331463</v>
+        <v>234.3122515259573</v>
       </c>
       <c r="G17" t="n">
         <v>253.3907575593626</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>51.8129541556658</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149481</v>
+        <v>91.98622431149488</v>
       </c>
       <c r="V17" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615699</v>
       </c>
       <c r="W17" t="n">
-        <v>176.6771745016592</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X17" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="18">
@@ -1929,7 +1929,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>94.31999152317567</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1938,7 +1938,7 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
-        <v>34.57325905991194</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S18" t="n">
         <v>144.1093279635753</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>20.69451257337226</v>
       </c>
       <c r="C19" t="n">
-        <v>8.109353490062745</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>58.38492158442484</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.608961026935261</v>
+        <v>7.608961026935317</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.369444003513237</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.19000555648653</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T19" t="n">
-        <v>63.49049600343957</v>
+        <v>222.6279636120047</v>
       </c>
       <c r="U19" t="n">
-        <v>127.1136771630372</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V19" t="n">
-        <v>93.00017571526291</v>
+        <v>93.00017571526297</v>
       </c>
       <c r="W19" t="n">
-        <v>127.3855307280259</v>
+        <v>180.617901725611</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>66.57218778047212</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.4471857435297</v>
+        <v>59.44718574352976</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F20" t="n">
-        <v>247.7385781331463</v>
+        <v>234.3122515259577</v>
       </c>
       <c r="G20" t="n">
         <v>253.3907575593626</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.8129541556658</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U20" t="n">
-        <v>91.98622431149481</v>
+        <v>91.98622431149488</v>
       </c>
       <c r="V20" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615699</v>
       </c>
       <c r="W20" t="n">
-        <v>176.6771745016595</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X20" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>43.45839229830572</v>
       </c>
       <c r="G21" t="n">
         <v>135.8590221842308</v>
@@ -2178,7 +2178,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S21" t="n">
         <v>144.1093279635753</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>150.4368228693358</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.55743956744433</v>
+        <v>20.69451257337226</v>
       </c>
       <c r="C22" t="n">
-        <v>8.109353490062745</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.608961026935261</v>
+        <v>7.608961026935317</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.369444003513237</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.19000555648653</v>
+        <v>43.19000555648658</v>
       </c>
       <c r="T22" t="n">
         <v>222.6279636120047</v>
       </c>
       <c r="U22" t="n">
-        <v>127.1136771630372</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V22" t="n">
-        <v>93.00017571526291</v>
+        <v>93.00017571526297</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>180.6179017256109</v>
       </c>
       <c r="X22" t="n">
-        <v>66.57218778047206</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>59.44718574352976</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F23" t="n">
-        <v>247.7385781331463</v>
+        <v>247.7385781331464</v>
       </c>
       <c r="G23" t="n">
         <v>253.3907575593626</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.8129541556658</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149481</v>
+        <v>91.98622431149487</v>
       </c>
       <c r="V23" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615699</v>
       </c>
       <c r="W23" t="n">
-        <v>190.1035011088479</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X23" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H24" t="n">
-        <v>47.99958566710074</v>
+        <v>9.713854504248676</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S24" t="n">
         <v>144.1093279635753</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.69451257337221</v>
+        <v>20.69451257337226</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062745</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7464286355003</v>
+        <v>7.608961026935317</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.369444003513237</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>202.3274731650516</v>
       </c>
       <c r="T25" t="n">
-        <v>222.6279636120047</v>
+        <v>63.49049600343962</v>
       </c>
       <c r="U25" t="n">
-        <v>127.1136771630372</v>
+        <v>190.868042750975</v>
       </c>
       <c r="V25" t="n">
-        <v>93.00017571526291</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>127.3855307280259</v>
+        <v>127.385530728026</v>
       </c>
       <c r="X25" t="n">
-        <v>114.4351147745444</v>
+        <v>66.57218778047212</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.4471857435297</v>
+        <v>59.44718574352976</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.1651078591981</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C26" t="n">
         <v>285.704157966725</v>
       </c>
       <c r="D26" t="n">
-        <v>275.1143078164005</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E26" t="n">
-        <v>302.3616362679793</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F26" t="n">
         <v>327.3073119374289</v>
       </c>
       <c r="G26" t="n">
-        <v>332.9594913636452</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H26" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040939</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="T26" t="n">
         <v>131.3816879599484</v>
@@ -2652,7 +2652,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S27" t="n">
         <v>144.1093279635753</v>
@@ -2713,22 +2713,22 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C28" t="n">
-        <v>87.67808729434532</v>
+        <v>87.6780872943453</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392984</v>
+        <v>69.04673921392983</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228665</v>
+        <v>66.86522884228664</v>
       </c>
       <c r="F28" t="n">
-        <v>65.85231421864873</v>
+        <v>65.85231421864871</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121782</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630865</v>
+        <v>71.59325136630862</v>
       </c>
       <c r="I28" t="n">
         <v>38.45470665437195</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76513142968432</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S28" t="n">
         <v>122.7587393607691</v>
@@ -2779,7 +2779,7 @@
         <v>146.1409215847546</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>302.3616362679792</v>
       </c>
       <c r="F29" t="n">
-        <v>327.3073119374288</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G29" t="n">
-        <v>332.959491363645</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H29" t="n">
         <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040933</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997371</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T29" t="n">
-        <v>131.3816879599483</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U29" t="n">
-        <v>171.5549581157773</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V29" t="n">
-        <v>248.1835246658523</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W29" t="n">
-        <v>269.6722349131304</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X29" t="n">
-        <v>290.1623668741864</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y29" t="n">
         <v>306.669204851771</v>
@@ -2889,7 +2889,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S30" t="n">
         <v>144.1093279635753</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.2632463776547</v>
+        <v>100.2632463776548</v>
       </c>
       <c r="C31" t="n">
-        <v>87.67808729434617</v>
+        <v>87.6780872943453</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392978</v>
+        <v>69.04673921392983</v>
       </c>
       <c r="E31" t="n">
-        <v>66.8652288422866</v>
+        <v>66.86522884228664</v>
       </c>
       <c r="F31" t="n">
-        <v>65.85231421864867</v>
+        <v>65.85231421864871</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121778</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630859</v>
+        <v>71.59325136630864</v>
       </c>
       <c r="I31" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437194</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76513142968427</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S31" t="n">
         <v>122.7587393607691</v>
@@ -3007,10 +3007,10 @@
         <v>206.6824109673197</v>
       </c>
       <c r="V31" t="n">
-        <v>172.5689095195454</v>
+        <v>172.5689095195455</v>
       </c>
       <c r="W31" t="n">
-        <v>206.9542645323084</v>
+        <v>206.9542645323085</v>
       </c>
       <c r="X31" t="n">
         <v>146.1409215847546</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.1651078591981</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C32" t="n">
-        <v>285.7041579667251</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D32" t="n">
-        <v>275.1143078164005</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E32" t="n">
-        <v>302.3616362679793</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F32" t="n">
         <v>327.3073119374289</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9594913636452</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H32" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I32" t="n">
-        <v>23.9427685004094</v>
+        <v>23.94276850040934</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997378</v>
+        <v>66.22713566997373</v>
       </c>
       <c r="T32" t="n">
         <v>131.3816879599484</v>
@@ -3095,7 +3095,7 @@
         <v>290.1623668741865</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.6692048517711</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S33" t="n">
         <v>144.1093279635753</v>
@@ -3187,25 +3187,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C34" t="n">
-        <v>87.67808729434533</v>
+        <v>87.67808729434529</v>
       </c>
       <c r="D34" t="n">
-        <v>69.04673921392985</v>
+        <v>69.04673921392981</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228667</v>
+        <v>66.86522884228663</v>
       </c>
       <c r="F34" t="n">
-        <v>65.85231421864874</v>
+        <v>65.8523142186487</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121785</v>
+        <v>87.17769483121779</v>
       </c>
       <c r="H34" t="n">
-        <v>71.59325136630866</v>
+        <v>71.59325136630862</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437197</v>
+        <v>38.45470665437193</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76513142968434</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S34" t="n">
         <v>122.7587393607691</v>
       </c>
       <c r="T34" t="n">
-        <v>143.0592298077222</v>
+        <v>143.0592298077221</v>
       </c>
       <c r="U34" t="n">
-        <v>206.6824109673198</v>
+        <v>206.6824109673197</v>
       </c>
       <c r="V34" t="n">
         <v>172.5689095195455</v>
@@ -3250,10 +3250,10 @@
         <v>206.9542645323085</v>
       </c>
       <c r="X34" t="n">
-        <v>146.1409215847547</v>
+        <v>146.1409215847546</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>236.9379721892243</v>
       </c>
       <c r="C35" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D35" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E35" t="n">
         <v>236.1345005980055</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.15455228997459</v>
+        <v>65.15455228997462</v>
       </c>
       <c r="U35" t="n">
         <v>105.3278224458036</v>
@@ -3329,7 +3329,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X35" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y35" t="n">
         <v>240.4420691817973</v>
@@ -3363,7 +3363,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S36" t="n">
         <v>144.1093279635753</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.03611070768099</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C37" t="n">
-        <v>21.45095162437153</v>
+        <v>21.45095162437156</v>
       </c>
       <c r="D37" t="n">
-        <v>2.819603543956049</v>
+        <v>2.819603543956077</v>
       </c>
       <c r="E37" t="n">
-        <v>0.638093172312864</v>
+        <v>0.6380931723128924</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334859</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>202.3274731650516</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6279636120047</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U37" t="n">
-        <v>237.2685164164226</v>
+        <v>237.2685164164221</v>
       </c>
       <c r="V37" t="n">
-        <v>106.3417738495717</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>140.7271288623347</v>
       </c>
       <c r="X37" t="n">
-        <v>79.91378591478085</v>
+        <v>79.91378591478087</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.78878387783848</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
     <row r="38">
@@ -3503,10 +3503,10 @@
         <v>236.9379721892243</v>
       </c>
       <c r="C38" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D38" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E38" t="n">
         <v>236.1345005980055</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.15455228997459</v>
+        <v>65.1545522899746</v>
       </c>
       <c r="U38" t="n">
         <v>105.3278224458036</v>
@@ -3566,7 +3566,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X38" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y38" t="n">
         <v>240.4420691817973</v>
@@ -3600,7 +3600,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S39" t="n">
         <v>144.1093279635753</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.03611070768099</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>21.45095162437153</v>
+        <v>118.2641927434479</v>
       </c>
       <c r="D40" t="n">
-        <v>2.819603543956049</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.638093172312864</v>
+        <v>0.6380931723128924</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H40" t="n">
-        <v>5.366115696334859</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I40" t="n">
-        <v>96.81324111907648</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.53160369079531</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6279636120047</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U40" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V40" t="n">
         <v>106.3417738495717</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X40" t="n">
-        <v>79.91378591478085</v>
+        <v>79.91378591478087</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.78878387783848</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>236.9379721892243</v>
       </c>
       <c r="C41" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D41" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E41" t="n">
         <v>236.1345005980055</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.15455228997457</v>
+        <v>65.1545522899746</v>
       </c>
       <c r="U41" t="n">
         <v>105.3278224458036</v>
@@ -3803,7 +3803,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y41" t="n">
         <v>240.4420691817973</v>
@@ -3837,7 +3837,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S42" t="n">
         <v>144.1093279635753</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03611070768099</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C43" t="n">
-        <v>21.45095162437153</v>
+        <v>21.45095162437156</v>
       </c>
       <c r="D43" t="n">
-        <v>127.4052736786345</v>
+        <v>2.819603543956077</v>
       </c>
       <c r="E43" t="n">
-        <v>0.638093172312864</v>
+        <v>0.6380931723128924</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1619851705912</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I43" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.53160369079531</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T43" t="n">
-        <v>76.83209413774834</v>
+        <v>222.6279636120047</v>
       </c>
       <c r="U43" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V43" t="n">
         <v>106.3417738495717</v>
       </c>
       <c r="W43" t="n">
-        <v>140.7271288623347</v>
+        <v>237.540369981411</v>
       </c>
       <c r="X43" t="n">
-        <v>79.91378591478085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.78878387783848</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>236.9379721892243</v>
       </c>
       <c r="C44" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D44" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E44" t="n">
         <v>236.1345005980055</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.15455228997457</v>
+        <v>65.1545522899746</v>
       </c>
       <c r="U44" t="n">
         <v>105.3278224458036</v>
@@ -4040,7 +4040,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X44" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y44" t="n">
         <v>240.4420691817973</v>
@@ -4074,7 +4074,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S45" t="n">
         <v>144.1093279635753</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.03611070768099</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C46" t="n">
-        <v>21.45095162437153</v>
+        <v>21.45095162437156</v>
       </c>
       <c r="D46" t="n">
-        <v>2.819603543956049</v>
+        <v>2.819603543956077</v>
       </c>
       <c r="E46" t="n">
-        <v>0.638093172312864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7464286355003</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1793568154114</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.53160369079531</v>
+        <v>153.3448448098714</v>
       </c>
       <c r="T46" t="n">
-        <v>76.83209413774834</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U46" t="n">
-        <v>140.4552752973459</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V46" t="n">
         <v>106.3417738495717</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X46" t="n">
-        <v>79.91378591478085</v>
+        <v>79.91378591478087</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.78878387783848</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1088.086802833656</v>
+        <v>265.7397992471385</v>
       </c>
       <c r="C11" t="n">
-        <v>799.496744281409</v>
+        <v>265.7397992471385</v>
       </c>
       <c r="D11" t="n">
-        <v>727.5231047994509</v>
+        <v>265.7397992471385</v>
       </c>
       <c r="E11" t="n">
-        <v>727.5231047994509</v>
+        <v>265.7397992471385</v>
       </c>
       <c r="F11" t="n">
-        <v>396.9096583980075</v>
+        <v>265.7397992471385</v>
       </c>
       <c r="G11" t="n">
-        <v>60.5869398488711</v>
+        <v>265.7397992471385</v>
       </c>
       <c r="H11" t="n">
-        <v>60.5869398488711</v>
+        <v>60.58693984887114</v>
       </c>
       <c r="I11" t="n">
         <v>36.40232520199299</v>
       </c>
       <c r="J11" t="n">
-        <v>90.29531437608122</v>
+        <v>90.29531437608128</v>
       </c>
       <c r="K11" t="n">
-        <v>540.7740887507445</v>
+        <v>221.8054530777753</v>
       </c>
       <c r="L11" t="n">
-        <v>740.8258065900724</v>
+        <v>421.8571709171034</v>
       </c>
       <c r="M11" t="n">
-        <v>995.091325969791</v>
+        <v>676.1226902968222</v>
       </c>
       <c r="N11" t="n">
-        <v>1258.084935658323</v>
+        <v>939.116299985354</v>
       </c>
       <c r="O11" t="n">
-        <v>1493.087082418991</v>
+        <v>1389.595074360017</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.407744186977</v>
+        <v>1743.578934043204</v>
       </c>
       <c r="Q11" t="n">
-        <v>1795.945070243422</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="R11" t="n">
         <v>1820.116260099649</v>
       </c>
       <c r="S11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="T11" t="n">
-        <v>1687.40748438253</v>
+        <v>1620.511387746193</v>
       </c>
       <c r="U11" t="n">
-        <v>1687.40748438253</v>
+        <v>1447.223551265609</v>
       </c>
       <c r="V11" t="n">
-        <v>1687.40748438253</v>
+        <v>1447.223551265609</v>
       </c>
       <c r="W11" t="n">
-        <v>1687.40748438253</v>
+        <v>1174.827354383659</v>
       </c>
       <c r="X11" t="n">
-        <v>1394.314184509614</v>
+        <v>881.7340545107438</v>
       </c>
       <c r="Y11" t="n">
-        <v>1394.314184509614</v>
+        <v>571.9671809230962</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>578.9294075749551</v>
+        <v>498.5569491867902</v>
       </c>
       <c r="C12" t="n">
-        <v>484.8488366819923</v>
+        <v>325.3650116346998</v>
       </c>
       <c r="D12" t="n">
-        <v>416.2868854089053</v>
+        <v>256.8030603616127</v>
       </c>
       <c r="E12" t="n">
-        <v>257.0494304034498</v>
+        <v>177.9380637443214</v>
       </c>
       <c r="F12" t="n">
-        <v>190.887330818499</v>
+        <v>111.7759641593705</v>
       </c>
       <c r="G12" t="n">
-        <v>54.91708700790758</v>
+        <v>54.91708700790763</v>
       </c>
       <c r="H12" t="n">
         <v>36.40232520199299</v>
@@ -5118,25 +5118,25 @@
         <v>36.40232520199299</v>
       </c>
       <c r="J12" t="n">
-        <v>49.68277339315014</v>
+        <v>174.5128983801549</v>
       </c>
       <c r="K12" t="n">
-        <v>412.356583997881</v>
+        <v>537.1867089848859</v>
       </c>
       <c r="L12" t="n">
-        <v>862.8353583725443</v>
+        <v>719.1188585074405</v>
       </c>
       <c r="M12" t="n">
-        <v>1094.498463852517</v>
+        <v>950.7819639874133</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.701647315208</v>
+        <v>1202.985147450104</v>
       </c>
       <c r="O12" t="n">
-        <v>1555.198493093607</v>
+        <v>1411.481993228503</v>
       </c>
       <c r="P12" t="n">
-        <v>1703.202526994115</v>
+        <v>1563.122164526897</v>
       </c>
       <c r="Q12" t="n">
         <v>1820.116260099649</v>
@@ -5145,25 +5145,25 @@
         <v>1820.116260099649</v>
       </c>
       <c r="S12" t="n">
-        <v>1754.923740746829</v>
+        <v>1674.551282358664</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.15360097472</v>
+        <v>1478.408684198391</v>
       </c>
       <c r="U12" t="n">
-        <v>1491.401091749126</v>
+        <v>1250.283716584633</v>
       </c>
       <c r="V12" t="n">
-        <v>1256.248983517383</v>
+        <v>1015.13160835289</v>
       </c>
       <c r="W12" t="n">
-        <v>1002.011626789181</v>
+        <v>841.2667100128525</v>
       </c>
       <c r="X12" t="n">
-        <v>874.5325849718129</v>
+        <v>713.7876681954839</v>
       </c>
       <c r="Y12" t="n">
-        <v>747.1447445950232</v>
+        <v>586.3998278186941</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334158</v>
+        <v>527.9861862334157</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936731</v>
+        <v>439.4224616936729</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695016</v>
+        <v>369.6782806695011</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752727</v>
+        <v>302.1376454752722</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655266</v>
+        <v>235.620156365526</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5618787582359</v>
+        <v>147.5618787582353</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671208</v>
+        <v>75.24546323671132</v>
       </c>
       <c r="I13" t="n">
         <v>36.40232520199299</v>
@@ -5200,19 +5200,19 @@
         <v>109.8596221047546</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180466</v>
+        <v>309.7340958180465</v>
       </c>
       <c r="L13" t="n">
         <v>599.0017100013556</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035642</v>
+        <v>910.1008877035641</v>
       </c>
       <c r="N13" t="n">
-        <v>1221.110485701271</v>
+        <v>1221.11048570127</v>
       </c>
       <c r="O13" t="n">
-        <v>1498.375280567426</v>
+        <v>1498.375280567425</v>
       </c>
       <c r="P13" t="n">
         <v>1723.471626070058</v>
@@ -5224,13 +5224,13 @@
         <v>1777.929258655524</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028485</v>
+        <v>1653.930532028484</v>
       </c>
       <c r="T13" t="n">
-        <v>1509.426259495432</v>
+        <v>1509.426259495431</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.656147407229</v>
+        <v>1300.65614740723</v>
       </c>
       <c r="V13" t="n">
         <v>1126.344117589507</v>
@@ -5239,10 +5239,10 @@
         <v>917.2994059407104</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308572</v>
+        <v>769.6823134308571</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754913</v>
+        <v>629.2621926754912</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1313.409037548892</v>
+        <v>697.4147822852881</v>
       </c>
       <c r="C14" t="n">
-        <v>1313.409037548892</v>
+        <v>697.4147822852881</v>
       </c>
       <c r="D14" t="n">
-        <v>1035.515797330306</v>
+        <v>419.5215420667017</v>
       </c>
       <c r="E14" t="n">
-        <v>730.1000031202258</v>
+        <v>419.5215420667017</v>
       </c>
       <c r="F14" t="n">
-        <v>399.4865567187824</v>
+        <v>419.5215420667017</v>
       </c>
       <c r="G14" t="n">
-        <v>63.16383816964584</v>
+        <v>83.19882351756513</v>
       </c>
       <c r="H14" t="n">
-        <v>63.16383816964584</v>
+        <v>74.23424808874225</v>
       </c>
       <c r="I14" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3482716363054</v>
+        <v>103.9426226159524</v>
       </c>
       <c r="K14" t="n">
-        <v>723.7623687834525</v>
+        <v>235.4527613176465</v>
       </c>
       <c r="L14" t="n">
-        <v>978.8426139303115</v>
+        <v>435.5044791569746</v>
       </c>
       <c r="M14" t="n">
-        <v>1233.10813331003</v>
+        <v>1054.868693000043</v>
       </c>
       <c r="N14" t="n">
-        <v>1496.101742998562</v>
+        <v>1317.862302688575</v>
       </c>
       <c r="O14" t="n">
-        <v>1731.10388975923</v>
+        <v>1929.856628899362</v>
       </c>
       <c r="P14" t="n">
         <v>2215.752505283454</v>
       </c>
       <c r="Q14" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R14" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.585575456867</v>
+        <v>2435.585575456868</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.876799739748</v>
+        <v>2302.876799739749</v>
       </c>
       <c r="U14" t="n">
-        <v>2129.588963259164</v>
+        <v>2129.588963259165</v>
       </c>
       <c r="V14" t="n">
         <v>1878.898534303758</v>
       </c>
       <c r="W14" t="n">
-        <v>1606.502337421808</v>
+        <v>1606.502337421809</v>
       </c>
       <c r="X14" t="n">
-        <v>1313.409037548892</v>
+        <v>1313.409037548893</v>
       </c>
       <c r="Y14" t="n">
-        <v>1313.409037548892</v>
+        <v>1003.642163961246</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>954.0000968165722</v>
+        <v>851.3629048013418</v>
       </c>
       <c r="C15" t="n">
-        <v>779.5470675354452</v>
+        <v>676.9098755202148</v>
       </c>
       <c r="D15" t="n">
-        <v>630.6126578741939</v>
+        <v>591.9402021541405</v>
       </c>
       <c r="E15" t="n">
-        <v>471.3752028687385</v>
+        <v>432.702747148685</v>
       </c>
       <c r="F15" t="n">
-        <v>324.8406448956234</v>
+        <v>286.16818917557</v>
       </c>
       <c r="G15" t="n">
-        <v>187.6093093559964</v>
+        <v>148.9368536359429</v>
       </c>
       <c r="H15" t="n">
-        <v>88.72208916191758</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J15" t="n">
-        <v>63.33008163302124</v>
+        <v>63.33008163302128</v>
       </c>
       <c r="K15" t="n">
-        <v>164.1833075952993</v>
+        <v>164.1833075952995</v>
       </c>
       <c r="L15" t="n">
-        <v>713.2473989682784</v>
+        <v>346.1154571178541</v>
       </c>
       <c r="M15" t="n">
-        <v>1139.558191199845</v>
+        <v>577.778562597827</v>
       </c>
       <c r="N15" t="n">
-        <v>1391.761374662535</v>
+        <v>1197.142776440895</v>
       </c>
       <c r="O15" t="n">
-        <v>1990.181916524897</v>
+        <v>1795.563318303257</v>
       </c>
       <c r="P15" t="n">
-        <v>2453.464091378943</v>
+        <v>2258.845493157302</v>
       </c>
       <c r="Q15" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.412049266857</v>
+        <v>2494.412049266858</v>
       </c>
       <c r="S15" t="n">
-        <v>2429.219529914036</v>
+        <v>2348.847071525872</v>
       </c>
       <c r="T15" t="n">
-        <v>2233.076931753763</v>
+        <v>2152.704473365599</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.951964140004</v>
+        <v>1924.579505751841</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.799855908262</v>
+        <v>1689.427397520098</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.56249918006</v>
+        <v>1435.190040791897</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.710998974527</v>
+        <v>1227.338540586364</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.950700209573</v>
+        <v>1019.57824182141</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.6334944732869</v>
+        <v>541.6334944732873</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335441</v>
+        <v>453.0697699335445</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093726</v>
+        <v>383.325588909373</v>
       </c>
       <c r="E16" t="n">
-        <v>315.7849537151436</v>
+        <v>315.784953715144</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2674646053974</v>
+        <v>249.2674646053978</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2091869981067</v>
+        <v>161.2091869981071</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658281</v>
+        <v>88.89277147658322</v>
       </c>
       <c r="I16" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J16" t="n">
         <v>123.5069303446256</v>
@@ -5443,19 +5443,19 @@
         <v>612.6490182412267</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434352</v>
+        <v>923.7481959434351</v>
       </c>
       <c r="N16" t="n">
         <v>1234.757793941141</v>
       </c>
       <c r="O16" t="n">
-        <v>1512.022588807296</v>
+        <v>1512.022588807297</v>
       </c>
       <c r="P16" t="n">
         <v>1737.118934309929</v>
       </c>
       <c r="Q16" t="n">
-        <v>1833.76356833952</v>
+        <v>1833.763568339521</v>
       </c>
       <c r="R16" t="n">
         <v>1791.576566895395</v>
@@ -5464,7 +5464,7 @@
         <v>1667.577840268355</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.073567735302</v>
+        <v>1523.073567735303</v>
       </c>
       <c r="U16" t="n">
         <v>1314.303455647101</v>
@@ -5473,13 +5473,13 @@
         <v>1139.991425829378</v>
       </c>
       <c r="W16" t="n">
-        <v>930.9467141805817</v>
+        <v>930.9467141805819</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707283</v>
+        <v>783.3296216707288</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.9095009153624</v>
+        <v>642.9095009153629</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1340.480033706641</v>
+        <v>1326.918087638774</v>
       </c>
       <c r="C17" t="n">
-        <v>1132.262433542558</v>
+        <v>1118.700487474691</v>
       </c>
       <c r="D17" t="n">
-        <v>934.7416517121359</v>
+        <v>921.1797056442689</v>
       </c>
       <c r="E17" t="n">
-        <v>709.69831589022</v>
+        <v>696.136369822353</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769408</v>
+        <v>459.4573278769416</v>
       </c>
       <c r="G17" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159693</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I17" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J17" t="n">
-        <v>103.9426226159523</v>
+        <v>103.9426226159524</v>
       </c>
       <c r="K17" t="n">
-        <v>517.0866760789932</v>
+        <v>235.4527613176465</v>
       </c>
       <c r="L17" t="n">
-        <v>1130.622996323267</v>
+        <v>435.5044791569745</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.888515702986</v>
+        <v>1028.51791154845</v>
       </c>
       <c r="N17" t="n">
-        <v>1647.882125391517</v>
+        <v>1647.882125391518</v>
       </c>
       <c r="O17" t="n">
-        <v>2259.876451602304</v>
+        <v>2259.876451602305</v>
       </c>
       <c r="P17" t="n">
-        <v>2425.944346036759</v>
+        <v>2425.94434603676</v>
       </c>
       <c r="Q17" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R17" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="S17" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="T17" t="n">
-        <v>2450.145354764249</v>
+        <v>2450.14535476425</v>
       </c>
       <c r="U17" t="n">
-        <v>2357.22997667183</v>
+        <v>2357.229976671831</v>
       </c>
       <c r="V17" t="n">
         <v>2186.912006104588</v>
       </c>
       <c r="W17" t="n">
-        <v>2008.450213678669</v>
+        <v>1994.888267610803</v>
       </c>
       <c r="X17" t="n">
-        <v>1795.729372193918</v>
+        <v>1782.167426126051</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.334956994435</v>
+        <v>1552.773010926568</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>851.3629048013408</v>
+        <v>851.3629048013418</v>
       </c>
       <c r="C18" t="n">
-        <v>676.9098755202139</v>
+        <v>676.9098755202148</v>
       </c>
       <c r="D18" t="n">
-        <v>527.9754658589626</v>
+        <v>527.9754658589635</v>
       </c>
       <c r="E18" t="n">
-        <v>368.7380108535071</v>
+        <v>432.702747148685</v>
       </c>
       <c r="F18" t="n">
-        <v>222.2034528803921</v>
+        <v>286.16818917557</v>
       </c>
       <c r="G18" t="n">
-        <v>84.97211734076504</v>
+        <v>148.9368536359429</v>
       </c>
       <c r="H18" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J18" t="n">
-        <v>188.160206620026</v>
+        <v>63.33008163302126</v>
       </c>
       <c r="K18" t="n">
-        <v>550.834017224757</v>
+        <v>426.0038922377522</v>
       </c>
       <c r="L18" t="n">
-        <v>732.7661667473116</v>
+        <v>910.1176734407398</v>
       </c>
       <c r="M18" t="n">
-        <v>964.4292722272843</v>
+        <v>1529.481887283808</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.708555888007</v>
+        <v>1781.685070746499</v>
       </c>
       <c r="O18" t="n">
-        <v>1782.205401666406</v>
+        <v>1990.181916524898</v>
       </c>
       <c r="P18" t="n">
-        <v>2245.487576520452</v>
+        <v>2453.464091378944</v>
       </c>
       <c r="Q18" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R18" t="n">
-        <v>2494.412049266857</v>
+        <v>2494.412049266858</v>
       </c>
       <c r="S18" t="n">
-        <v>2348.847071525871</v>
+        <v>2348.847071525872</v>
       </c>
       <c r="T18" t="n">
-        <v>2152.704473365598</v>
+        <v>2152.704473365599</v>
       </c>
       <c r="U18" t="n">
-        <v>1924.57950575184</v>
+        <v>1924.579505751841</v>
       </c>
       <c r="V18" t="n">
-        <v>1689.427397520097</v>
+        <v>1689.427397520098</v>
       </c>
       <c r="W18" t="n">
-        <v>1435.190040791896</v>
+        <v>1435.190040791897</v>
       </c>
       <c r="X18" t="n">
-        <v>1227.338540586363</v>
+        <v>1227.338540586364</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.578241821409</v>
+        <v>1019.57824182141</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>280.4417073036302</v>
+        <v>65.92671881256928</v>
       </c>
       <c r="C19" t="n">
-        <v>272.2504411520517</v>
+        <v>57.7354526609907</v>
       </c>
       <c r="D19" t="n">
-        <v>122.1338017397159</v>
+        <v>57.7354526609907</v>
       </c>
       <c r="E19" t="n">
-        <v>63.15913347262015</v>
+        <v>57.7354526609907</v>
       </c>
       <c r="F19" t="n">
-        <v>63.15913347262015</v>
+        <v>57.7354526609907</v>
       </c>
       <c r="G19" t="n">
-        <v>55.47331425349362</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="H19" t="n">
-        <v>55.47331425349362</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I19" t="n">
-        <v>55.47331425349362</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J19" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="K19" t="n">
         <v>171.1510606889163</v>
       </c>
       <c r="L19" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059858</v>
       </c>
       <c r="M19" t="n">
-        <v>613.9717596419545</v>
+        <v>613.9717596419546</v>
       </c>
       <c r="N19" t="n">
-        <v>846.2083111734211</v>
+        <v>846.2083111734212</v>
       </c>
       <c r="O19" t="n">
         <v>1044.700059573337</v>
@@ -5698,25 +5698,25 @@
         <v>1208.894946173081</v>
       </c>
       <c r="S19" t="n">
-        <v>1165.268677934206</v>
+        <v>1004.523761157877</v>
       </c>
       <c r="T19" t="n">
-        <v>1101.136863789317</v>
+        <v>779.6470302366606</v>
       </c>
       <c r="U19" t="n">
-        <v>972.7392100892797</v>
+        <v>490.5044597602947</v>
       </c>
       <c r="V19" t="n">
-        <v>878.7996386597213</v>
+        <v>396.5648883307362</v>
       </c>
       <c r="W19" t="n">
-        <v>750.127385399089</v>
+        <v>214.1225633553715</v>
       </c>
       <c r="X19" t="n">
-        <v>522.1378345010717</v>
+        <v>146.8779292336824</v>
       </c>
       <c r="Y19" t="n">
-        <v>462.0901721338699</v>
+        <v>86.83026686648066</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1340.480033706642</v>
+        <v>1326.918087638774</v>
       </c>
       <c r="C20" t="n">
-        <v>1132.262433542559</v>
+        <v>1118.70048747469</v>
       </c>
       <c r="D20" t="n">
-        <v>934.7416517121366</v>
+        <v>921.1797056442686</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6983158902207</v>
+        <v>696.1363698223531</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769415</v>
+        <v>459.4573278769416</v>
       </c>
       <c r="G20" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159693</v>
       </c>
       <c r="H20" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I20" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3482716363054</v>
+        <v>103.9426226159524</v>
       </c>
       <c r="K20" t="n">
-        <v>402.8584103379993</v>
+        <v>556.3567197630996</v>
       </c>
       <c r="L20" t="n">
-        <v>602.9101281773272</v>
+        <v>756.4084376024276</v>
       </c>
       <c r="M20" t="n">
-        <v>857.1756475570459</v>
+        <v>1208.936943453803</v>
       </c>
       <c r="N20" t="n">
-        <v>1120.169257245578</v>
+        <v>1471.930553142335</v>
       </c>
       <c r="O20" t="n">
-        <v>1706.932699903003</v>
+        <v>1706.932699903004</v>
       </c>
       <c r="P20" t="n">
-        <v>2191.581315427226</v>
+        <v>2191.581315427227</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.310482236977</v>
+        <v>2478.310482236978</v>
       </c>
       <c r="R20" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="S20" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="T20" t="n">
-        <v>2450.145354764249</v>
+        <v>2450.14535476425</v>
       </c>
       <c r="U20" t="n">
         <v>2357.229976671831</v>
       </c>
       <c r="V20" t="n">
-        <v>2186.912006104589</v>
+        <v>2186.912006104588</v>
       </c>
       <c r="W20" t="n">
-        <v>2008.45021367867</v>
+        <v>1994.888267610802</v>
       </c>
       <c r="X20" t="n">
-        <v>1795.729372193919</v>
+        <v>1782.16742612605</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.334956994435</v>
+        <v>1552.773010926567</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.3276410965187</v>
+        <v>851.3629048013418</v>
       </c>
       <c r="C21" t="n">
-        <v>740.8746118153917</v>
+        <v>676.9098755202148</v>
       </c>
       <c r="D21" t="n">
-        <v>591.9402021541405</v>
+        <v>527.9754658589635</v>
       </c>
       <c r="E21" t="n">
-        <v>432.7027471486849</v>
+        <v>368.738010853508</v>
       </c>
       <c r="F21" t="n">
-        <v>286.1681891755699</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9368536359429</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H21" t="n">
-        <v>50.04963344186409</v>
+        <v>88.72208916191758</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J21" t="n">
         <v>188.160206620026</v>
@@ -5835,46 +5835,46 @@
         <v>550.834017224757</v>
       </c>
       <c r="L21" t="n">
-        <v>1089.842266945344</v>
+        <v>1099.898108597736</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.505372425317</v>
+        <v>1454.836332153384</v>
       </c>
       <c r="N21" t="n">
-        <v>1573.708555888007</v>
+        <v>1707.039515616074</v>
       </c>
       <c r="O21" t="n">
-        <v>1782.205401666406</v>
+        <v>2305.460057478436</v>
       </c>
       <c r="P21" t="n">
-        <v>2245.487576520452</v>
+        <v>2453.464091378944</v>
       </c>
       <c r="Q21" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="R21" t="n">
-        <v>2502.481672093204</v>
+        <v>2494.412049266858</v>
       </c>
       <c r="S21" t="n">
-        <v>2356.916694352219</v>
+        <v>2348.847071525872</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.774096191946</v>
+        <v>2152.704473365599</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.649128578188</v>
+        <v>1924.579505751841</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.497020346445</v>
+        <v>1689.427397520098</v>
       </c>
       <c r="W21" t="n">
-        <v>1443.259663618243</v>
+        <v>1435.190040791897</v>
       </c>
       <c r="X21" t="n">
-        <v>1291.303276881541</v>
+        <v>1227.338540586364</v>
       </c>
       <c r="Y21" t="n">
-        <v>1083.542978116587</v>
+        <v>1019.57824182141</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.35039962419867</v>
+        <v>65.92671881256928</v>
       </c>
       <c r="C22" t="n">
-        <v>63.15913347262015</v>
+        <v>57.7354526609907</v>
       </c>
       <c r="D22" t="n">
-        <v>63.15913347262015</v>
+        <v>57.7354526609907</v>
       </c>
       <c r="E22" t="n">
-        <v>63.15913347262015</v>
+        <v>57.7354526609907</v>
       </c>
       <c r="F22" t="n">
-        <v>63.15913347262015</v>
+        <v>57.7354526609907</v>
       </c>
       <c r="G22" t="n">
-        <v>55.47331425349362</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="H22" t="n">
-        <v>55.47331425349362</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I22" t="n">
-        <v>55.47331425349362</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="J22" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="K22" t="n">
         <v>171.1510606889163</v>
       </c>
       <c r="L22" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059858</v>
       </c>
       <c r="M22" t="n">
-        <v>613.9717596419545</v>
+        <v>613.9717596419546</v>
       </c>
       <c r="N22" t="n">
-        <v>846.2083111734211</v>
+        <v>846.2083111734212</v>
       </c>
       <c r="O22" t="n">
         <v>1044.700059573337</v>
@@ -5941,19 +5941,19 @@
         <v>940.3919470129888</v>
       </c>
       <c r="U22" t="n">
-        <v>811.9942933129513</v>
+        <v>651.2493765366229</v>
       </c>
       <c r="V22" t="n">
-        <v>718.0547218833929</v>
+        <v>557.3098051070643</v>
       </c>
       <c r="W22" t="n">
-        <v>428.6375518464322</v>
+        <v>374.8674801316998</v>
       </c>
       <c r="X22" t="n">
-        <v>361.3929177247433</v>
+        <v>146.8779292336824</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.6003385812132</v>
+        <v>86.83026686648066</v>
       </c>
     </row>
     <row r="23">
@@ -5969,52 +5969,52 @@
         <v>1132.539207952107</v>
       </c>
       <c r="D23" t="n">
-        <v>935.018426121685</v>
+        <v>935.0184261216846</v>
       </c>
       <c r="E23" t="n">
-        <v>709.975090299769</v>
+        <v>709.9750902997686</v>
       </c>
       <c r="F23" t="n">
-        <v>459.7341022864898</v>
+        <v>459.7341022864894</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7838421255175</v>
+        <v>203.7838421255176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="I23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J23" t="n">
         <v>104.2193970255007</v>
       </c>
       <c r="K23" t="n">
-        <v>235.7295357271946</v>
+        <v>235.7295357271948</v>
       </c>
       <c r="L23" t="n">
-        <v>435.7812535665225</v>
+        <v>849.2658559714687</v>
       </c>
       <c r="M23" t="n">
-        <v>1058.570550727751</v>
+        <v>1457.138694540752</v>
       </c>
       <c r="N23" t="n">
-        <v>1681.35984788898</v>
+        <v>1720.132304229284</v>
       </c>
       <c r="O23" t="n">
-        <v>2273.71517207972</v>
+        <v>1955.134450989953</v>
       </c>
       <c r="P23" t="n">
-        <v>2439.783066514175</v>
+        <v>2439.783066514176</v>
       </c>
       <c r="Q23" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R23" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="T23" t="n">
         <v>2463.984075241665</v>
@@ -6026,13 +6026,13 @@
         <v>2200.750726582004</v>
       </c>
       <c r="W23" t="n">
-        <v>2008.726988088219</v>
+        <v>2008.726988088218</v>
       </c>
       <c r="X23" t="n">
         <v>1796.006146603467</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.611731403984</v>
+        <v>1566.611731403983</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>865.2016252787566</v>
+        <v>865.2016252787575</v>
       </c>
       <c r="C24" t="n">
-        <v>690.7485959976296</v>
+        <v>690.7485959976306</v>
       </c>
       <c r="D24" t="n">
-        <v>541.8141863363784</v>
+        <v>541.8141863363793</v>
       </c>
       <c r="E24" t="n">
-        <v>382.5767313309229</v>
+        <v>382.5767313309238</v>
       </c>
       <c r="F24" t="n">
-        <v>236.0421733578079</v>
+        <v>236.0421733578088</v>
       </c>
       <c r="G24" t="n">
-        <v>98.81083781818083</v>
+        <v>98.81083781818174</v>
       </c>
       <c r="H24" t="n">
-        <v>50.32640785141241</v>
+        <v>88.9988635714659</v>
       </c>
       <c r="I24" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J24" t="n">
-        <v>188.4369810295743</v>
+        <v>63.60685604256958</v>
       </c>
       <c r="K24" t="n">
-        <v>551.1107916343052</v>
+        <v>426.2806666473005</v>
       </c>
       <c r="L24" t="n">
-        <v>733.0429411568598</v>
+        <v>713.7572913387983</v>
       </c>
       <c r="M24" t="n">
-        <v>1335.344092902732</v>
+        <v>945.420396818771</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.547276365423</v>
+        <v>1197.623580281461</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.044122143822</v>
+        <v>1796.044122143823</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.326296997868</v>
+        <v>2259.326296997869</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.250769744272</v>
+        <v>2508.250769744273</v>
       </c>
       <c r="S24" t="n">
-        <v>2362.685792003287</v>
+        <v>2362.685792003288</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.543193843014</v>
+        <v>2166.543193843015</v>
       </c>
       <c r="U24" t="n">
-        <v>1938.418226229256</v>
+        <v>1938.418226229257</v>
       </c>
       <c r="V24" t="n">
-        <v>1703.266117997513</v>
+        <v>1703.266117997514</v>
       </c>
       <c r="W24" t="n">
-        <v>1449.028761269311</v>
+        <v>1449.028761269312</v>
       </c>
       <c r="X24" t="n">
         <v>1241.177261063779</v>
       </c>
       <c r="Y24" t="n">
-        <v>1033.416962298825</v>
+        <v>1033.416962298826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>232.3720908100754</v>
+        <v>216.3201326344533</v>
       </c>
       <c r="C25" t="n">
-        <v>224.1808246584968</v>
+        <v>208.1288664828747</v>
       </c>
       <c r="D25" t="n">
-        <v>224.1808246584968</v>
+        <v>58.01222707053901</v>
       </c>
       <c r="E25" t="n">
-        <v>224.1808246584968</v>
+        <v>58.01222707053901</v>
       </c>
       <c r="F25" t="n">
-        <v>224.1808246584968</v>
+        <v>58.01222707053901</v>
       </c>
       <c r="G25" t="n">
-        <v>55.75008866304194</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="H25" t="n">
-        <v>55.75008866304194</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="I25" t="n">
-        <v>55.75008866304194</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J25" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="K25" t="n">
         <v>171.4278350984646</v>
       </c>
       <c r="L25" t="n">
-        <v>381.922402815534</v>
+        <v>381.9224028155341</v>
       </c>
       <c r="M25" t="n">
-        <v>614.2485340515028</v>
+        <v>614.2485340515029</v>
       </c>
       <c r="N25" t="n">
-        <v>846.4850855829694</v>
+        <v>846.4850855829695</v>
       </c>
       <c r="O25" t="n">
         <v>1044.976833982885</v>
@@ -6175,22 +6175,22 @@
         <v>1004.800535567426</v>
       </c>
       <c r="T25" t="n">
-        <v>779.923804646209</v>
+        <v>940.6687214225373</v>
       </c>
       <c r="U25" t="n">
-        <v>651.5261509461715</v>
+        <v>747.8727186437746</v>
       </c>
       <c r="V25" t="n">
-        <v>557.586579516613</v>
+        <v>493.1882304378878</v>
       </c>
       <c r="W25" t="n">
-        <v>428.9143262559808</v>
+        <v>364.5159771772555</v>
       </c>
       <c r="X25" t="n">
-        <v>313.3233012311885</v>
+        <v>297.2713430555665</v>
       </c>
       <c r="Y25" t="n">
-        <v>253.2756388639867</v>
+        <v>237.2236806883647</v>
       </c>
     </row>
     <row r="26">
@@ -6203,58 +6203,58 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852649</v>
       </c>
       <c r="D26" t="n">
         <v>1303.874969634063</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239831</v>
+        <v>998.4591754239837</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225397</v>
+        <v>667.8457290225401</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5230104734031</v>
+        <v>331.5230104734036</v>
       </c>
       <c r="H26" t="n">
         <v>97.69311781113446</v>
       </c>
       <c r="I26" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J26" t="n">
-        <v>127.4014923383445</v>
+        <v>239.653915194252</v>
       </c>
       <c r="K26" t="n">
-        <v>579.8155894854916</v>
+        <v>692.0680123413991</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.351909729765</v>
+        <v>1305.604332585673</v>
       </c>
       <c r="M26" t="n">
-        <v>1892.635827267388</v>
+        <v>2004.888250123296</v>
       </c>
       <c r="N26" t="n">
-        <v>2478.073700565132</v>
+        <v>2267.881859811828</v>
       </c>
       <c r="O26" t="n">
-        <v>3090.068026775918</v>
+        <v>2879.876186022614</v>
       </c>
       <c r="P26" t="n">
-        <v>3574.716642300142</v>
+        <v>3364.524801546837</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356587</v>
+        <v>3651.253968356588</v>
       </c>
       <c r="R26" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="S26" t="n">
         <v>3608.529061576477</v>
       </c>
       <c r="T26" t="n">
-        <v>3475.820285859357</v>
+        <v>3475.820285859358</v>
       </c>
       <c r="U26" t="n">
         <v>3302.532449378775</v>
@@ -6266,7 +6266,7 @@
         <v>2779.445823541418</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y26" t="n">
         <v>2176.585650080855</v>
@@ -6300,22 +6300,22 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I27" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J27" t="n">
-        <v>211.6190763424182</v>
+        <v>86.78895135541346</v>
       </c>
       <c r="K27" t="n">
-        <v>574.2928869471491</v>
+        <v>449.4627619601444</v>
       </c>
       <c r="L27" t="n">
-        <v>1123.356978320128</v>
+        <v>631.3949114826991</v>
       </c>
       <c r="M27" t="n">
-        <v>1355.020083800101</v>
+        <v>1324.106030075172</v>
       </c>
       <c r="N27" t="n">
-        <v>1607.223267262792</v>
+        <v>1576.309213537862</v>
       </c>
       <c r="O27" t="n">
         <v>1908.30146340403</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956794</v>
+        <v>565.092364195679</v>
       </c>
       <c r="C28" t="n">
-        <v>476.5286396559366</v>
+        <v>476.5286396559363</v>
       </c>
       <c r="D28" t="n">
-        <v>406.784458631765</v>
+        <v>406.7844586317648</v>
       </c>
       <c r="E28" t="n">
-        <v>339.243823437536</v>
+        <v>339.2438234375359</v>
       </c>
       <c r="F28" t="n">
-        <v>272.7263343277899</v>
+        <v>272.7263343277897</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6680567204991</v>
+        <v>184.668056720499</v>
       </c>
       <c r="H28" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I28" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9658000670178</v>
+        <v>146.9658000670176</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803096</v>
+        <v>346.8402737803098</v>
       </c>
       <c r="L28" t="n">
-        <v>636.1078879636187</v>
+        <v>636.107887963619</v>
       </c>
       <c r="M28" t="n">
-        <v>947.2070656658273</v>
+        <v>947.2070656658275</v>
       </c>
       <c r="N28" t="n">
-        <v>1258.216663663533</v>
+        <v>1258.216663663534</v>
       </c>
       <c r="O28" t="n">
         <v>1535.481458529689</v>
@@ -6403,13 +6403,13 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q28" t="n">
-        <v>1857.222438061912</v>
+        <v>1857.222438061913</v>
       </c>
       <c r="R28" t="n">
         <v>1815.035436617787</v>
       </c>
       <c r="S28" t="n">
-        <v>1691.036709990747</v>
+        <v>1691.036709990748</v>
       </c>
       <c r="T28" t="n">
         <v>1546.532437457695</v>
@@ -6427,7 +6427,7 @@
         <v>806.7884913931207</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377549</v>
+        <v>666.3683706377545</v>
       </c>
     </row>
     <row r="29">
@@ -6446,49 +6446,49 @@
         <v>1303.874969634063</v>
       </c>
       <c r="E29" t="n">
-        <v>998.459175423983</v>
+        <v>998.4591754239832</v>
       </c>
       <c r="F29" t="n">
         <v>667.8457290225397</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734032</v>
+        <v>331.5230104734034</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69311781113439</v>
+        <v>97.69311781113441</v>
       </c>
       <c r="I29" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J29" t="n">
-        <v>294.8071413586975</v>
+        <v>294.8071413586976</v>
       </c>
       <c r="K29" t="n">
-        <v>747.2212385058447</v>
+        <v>747.2212385058448</v>
       </c>
       <c r="L29" t="n">
-        <v>1360.757558750119</v>
+        <v>1317.649275575711</v>
       </c>
       <c r="M29" t="n">
-        <v>2060.041476287741</v>
+        <v>1571.91479495543</v>
       </c>
       <c r="N29" t="n">
-        <v>2323.035085976273</v>
+        <v>2267.881859811826</v>
       </c>
       <c r="O29" t="n">
-        <v>2935.029412187059</v>
+        <v>2879.876186022612</v>
       </c>
       <c r="P29" t="n">
-        <v>3419.678027711283</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q29" t="n">
-        <v>3675.425158212814</v>
+        <v>3651.253968356586</v>
       </c>
       <c r="R29" t="n">
         <v>3675.425158212814</v>
       </c>
       <c r="S29" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T29" t="n">
         <v>3475.820285859357</v>
@@ -6531,31 +6531,31 @@
         <v>348.2995146180156</v>
       </c>
       <c r="G30" t="n">
-        <v>211.0681790783886</v>
+        <v>211.0681790783885</v>
       </c>
       <c r="H30" t="n">
-        <v>112.1809588843098</v>
+        <v>112.1809588843097</v>
       </c>
       <c r="I30" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J30" t="n">
-        <v>135.6388003127575</v>
+        <v>211.6190763424182</v>
       </c>
       <c r="K30" t="n">
-        <v>498.3126109174884</v>
+        <v>312.4723023046963</v>
       </c>
       <c r="L30" t="n">
-        <v>680.244760440043</v>
+        <v>494.4044518272509</v>
       </c>
       <c r="M30" t="n">
-        <v>1372.955879032516</v>
+        <v>726.0675573072238</v>
       </c>
       <c r="N30" t="n">
-        <v>1625.159062495206</v>
+        <v>1452.819691370032</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.579604357568</v>
+        <v>2051.240233232394</v>
       </c>
       <c r="P30" t="n">
         <v>2371.583638258076</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956798</v>
+        <v>565.0923641956792</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559362</v>
+        <v>476.5286396559366</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317646</v>
+        <v>406.784458631765</v>
       </c>
       <c r="E31" t="n">
-        <v>339.2438234375357</v>
+        <v>339.243823437536</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277896</v>
+        <v>272.7263343277899</v>
       </c>
       <c r="G31" t="n">
         <v>184.6680567204992</v>
       </c>
       <c r="H31" t="n">
-        <v>112.3516411989754</v>
+        <v>112.3516411989753</v>
       </c>
       <c r="I31" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J31" t="n">
         <v>146.9658000670179</v>
@@ -6625,10 +6625,10 @@
         <v>346.8402737803098</v>
       </c>
       <c r="L31" t="n">
-        <v>636.107887963619</v>
+        <v>636.1078879636189</v>
       </c>
       <c r="M31" t="n">
-        <v>947.2070656658275</v>
+        <v>947.2070656658273</v>
       </c>
       <c r="N31" t="n">
         <v>1258.216663663534</v>
@@ -6658,13 +6658,13 @@
         <v>1163.450295551771</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029743</v>
+        <v>954.4055839029741</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931211</v>
+        <v>806.7884913931209</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.3683706377553</v>
+        <v>666.3683706377548</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404897</v>
+        <v>1870.358268404898</v>
       </c>
       <c r="C32" t="n">
         <v>1581.76820985265</v>
@@ -6686,40 +6686,40 @@
         <v>998.4591754239837</v>
       </c>
       <c r="F32" t="n">
-        <v>667.8457290225402</v>
+        <v>667.8457290225401</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734037</v>
+        <v>331.5230104734036</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113447</v>
+        <v>97.6931178111344</v>
       </c>
       <c r="I32" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J32" t="n">
-        <v>263.8251050504774</v>
+        <v>183.6726394765037</v>
       </c>
       <c r="K32" t="n">
-        <v>716.2392021976245</v>
+        <v>636.0867366236508</v>
       </c>
       <c r="L32" t="n">
-        <v>1329.775522441898</v>
+        <v>1249.623056867925</v>
       </c>
       <c r="M32" t="n">
-        <v>2029.059439979521</v>
+        <v>1948.906974405548</v>
       </c>
       <c r="N32" t="n">
-        <v>2292.053049668053</v>
+        <v>2644.874039261944</v>
       </c>
       <c r="O32" t="n">
-        <v>2904.04737587884</v>
+        <v>2879.876186022612</v>
       </c>
       <c r="P32" t="n">
-        <v>3388.695991403063</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q32" t="n">
-        <v>3675.425158212814</v>
+        <v>3651.253968356586</v>
       </c>
       <c r="R32" t="n">
         <v>3675.425158212814</v>
@@ -6731,7 +6731,7 @@
         <v>3475.820285859358</v>
       </c>
       <c r="U32" t="n">
-        <v>3302.532449378775</v>
+        <v>3302.532449378774</v>
       </c>
       <c r="V32" t="n">
         <v>3051.842020423368</v>
@@ -6768,31 +6768,31 @@
         <v>348.2995146180156</v>
       </c>
       <c r="G33" t="n">
-        <v>211.0681790783886</v>
+        <v>211.0681790783885</v>
       </c>
       <c r="H33" t="n">
-        <v>112.1809588843098</v>
+        <v>112.1809588843097</v>
       </c>
       <c r="I33" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J33" t="n">
         <v>211.6190763424182</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8116734298703</v>
+        <v>574.2928869471491</v>
       </c>
       <c r="L33" t="n">
-        <v>666.7438229524249</v>
+        <v>1123.356978320128</v>
       </c>
       <c r="M33" t="n">
-        <v>898.4069284323976</v>
+        <v>1447.60143416294</v>
       </c>
       <c r="N33" t="n">
-        <v>1625.159062495206</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.579604357568</v>
+        <v>1908.30146340403</v>
       </c>
       <c r="P33" t="n">
         <v>2371.583638258076</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956796</v>
+        <v>565.0923641956789</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559368</v>
+        <v>476.5286396559362</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317653</v>
+        <v>406.7844586317647</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375363</v>
+        <v>339.2438234375358</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277901</v>
+        <v>272.7263343277896</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204994</v>
+        <v>184.6680567204989</v>
       </c>
       <c r="H34" t="n">
-        <v>112.3516411989754</v>
+        <v>112.351641198975</v>
       </c>
       <c r="I34" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9658000670179</v>
+        <v>146.9658000670176</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8402737803098</v>
+        <v>346.8402737803093</v>
       </c>
       <c r="L34" t="n">
-        <v>636.1078879636189</v>
+        <v>636.1078879636185</v>
       </c>
       <c r="M34" t="n">
-        <v>947.2070656658274</v>
+        <v>947.2070656658269</v>
       </c>
       <c r="N34" t="n">
-        <v>1258.216663663534</v>
+        <v>1258.216663663533</v>
       </c>
       <c r="O34" t="n">
         <v>1535.481458529689</v>
@@ -6877,31 +6877,31 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q34" t="n">
-        <v>1857.222438061913</v>
+        <v>1857.222438061912</v>
       </c>
       <c r="R34" t="n">
-        <v>1815.035436617788</v>
+        <v>1815.035436617787</v>
       </c>
       <c r="S34" t="n">
-        <v>1691.036709990748</v>
+        <v>1691.036709990747</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457694</v>
       </c>
       <c r="U34" t="n">
-        <v>1337.762325369494</v>
+        <v>1337.762325369493</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029743</v>
+        <v>954.4055839029737</v>
       </c>
       <c r="X34" t="n">
-        <v>806.788491393121</v>
+        <v>806.7884913931204</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377551</v>
+        <v>666.3683706377544</v>
       </c>
     </row>
     <row r="35">
@@ -6914,46 +6914,46 @@
         <v>1425.19033990825</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100901</v>
+        <v>992.4992344100907</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363473</v>
+        <v>753.9795368363477</v>
       </c>
       <c r="F35" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712414</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H35" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I35" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J35" t="n">
-        <v>107.7947583065976</v>
+        <v>275.2004073269507</v>
       </c>
       <c r="K35" t="n">
-        <v>239.3048970082916</v>
+        <v>406.7105460286448</v>
       </c>
       <c r="L35" t="n">
-        <v>852.8412172525655</v>
+        <v>606.7622638679728</v>
       </c>
       <c r="M35" t="n">
-        <v>1519.875610267369</v>
+        <v>861.0277832476916</v>
       </c>
       <c r="N35" t="n">
-        <v>2186.910003282173</v>
+        <v>1528.062176262495</v>
       </c>
       <c r="O35" t="n">
-        <v>2421.912150042841</v>
+        <v>2140.056502473281</v>
       </c>
       <c r="P35" t="n">
-        <v>2587.980044477296</v>
+        <v>2618.551130569024</v>
       </c>
       <c r="Q35" t="n">
         <v>2695.088456625469</v>
@@ -6962,25 +6962,25 @@
         <v>2695.088456625469</v>
       </c>
       <c r="S35" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="T35" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U35" t="n">
         <v>2522.884037700442</v>
       </c>
       <c r="V35" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381373</v>
       </c>
       <c r="W35" t="n">
-        <v>2133.589605135759</v>
+        <v>2133.58960513576</v>
       </c>
       <c r="X35" t="n">
         <v>1907.392401899181</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H36" t="n">
-        <v>92.57422485256286</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I36" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J36" t="n">
         <v>192.0123423106713</v>
       </c>
       <c r="K36" t="n">
-        <v>554.6861529154022</v>
+        <v>292.8655682729494</v>
       </c>
       <c r="L36" t="n">
-        <v>1103.750244288381</v>
+        <v>841.9296596459286</v>
       </c>
       <c r="M36" t="n">
-        <v>1335.413349768354</v>
+        <v>1073.592765125901</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.616533231045</v>
+        <v>1325.795948588592</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.694729372283</v>
+        <v>1924.216490450954</v>
       </c>
       <c r="P36" t="n">
-        <v>2351.976904226328</v>
+        <v>2387.498665304999</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.970999799081</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.6445198377814</v>
+        <v>105.6445198377816</v>
       </c>
       <c r="C37" t="n">
-        <v>83.97689193437586</v>
+        <v>83.97689193437598</v>
       </c>
       <c r="D37" t="n">
-        <v>81.12880754654147</v>
+        <v>81.12880754654157</v>
       </c>
       <c r="E37" t="n">
-        <v>80.48426898864969</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="F37" t="n">
-        <v>80.48426898864969</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="G37" t="n">
-        <v>59.3220880176961</v>
+        <v>59.32208801769615</v>
       </c>
       <c r="H37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="K37" t="n">
         <v>175.0031963795616</v>
@@ -7102,10 +7102,10 @@
         <v>385.497764096631</v>
       </c>
       <c r="M37" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325999</v>
       </c>
       <c r="N37" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640665</v>
       </c>
       <c r="O37" t="n">
         <v>1048.552195263982</v>
@@ -7123,22 +7123,22 @@
         <v>1008.375896848523</v>
       </c>
       <c r="T37" t="n">
-        <v>783.499165927306</v>
+        <v>930.7677209518072</v>
       </c>
       <c r="U37" t="n">
-        <v>543.8339978299094</v>
+        <v>691.1025528544111</v>
       </c>
       <c r="V37" t="n">
-        <v>436.4180646485239</v>
+        <v>436.4180646485243</v>
       </c>
       <c r="W37" t="n">
-        <v>294.2694496360646</v>
+        <v>294.2694496360649</v>
       </c>
       <c r="X37" t="n">
-        <v>213.5484537625486</v>
+        <v>213.5484537625488</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.0244296435198</v>
+        <v>140.02442964352</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.496377992338</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100892</v>
+        <v>992.4992344100904</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363464</v>
+        <v>753.9795368363474</v>
       </c>
       <c r="F38" t="n">
-        <v>490.2621870712401</v>
+        <v>490.2621870712411</v>
       </c>
       <c r="G38" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H38" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I38" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J38" t="n">
-        <v>107.7947583065976</v>
+        <v>275.2004073269508</v>
       </c>
       <c r="K38" t="n">
-        <v>560.2088554537447</v>
+        <v>476.0461587715862</v>
       </c>
       <c r="L38" t="n">
-        <v>1173.745175698019</v>
+        <v>676.0978766109142</v>
       </c>
       <c r="M38" t="n">
-        <v>1428.010695077737</v>
+        <v>1343.132269625718</v>
       </c>
       <c r="N38" t="n">
-        <v>1691.004304766269</v>
+        <v>1606.12587931425</v>
       </c>
       <c r="O38" t="n">
-        <v>2302.998630977056</v>
+        <v>2218.120205525036</v>
       </c>
       <c r="P38" t="n">
-        <v>2618.551130569024</v>
+        <v>2384.188099959492</v>
       </c>
       <c r="Q38" t="n">
-        <v>2695.088456625469</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R38" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T38" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U38" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V38" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W38" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X38" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.521624947869</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256286</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I39" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J39" t="n">
-        <v>192.0123423106713</v>
+        <v>67.18221732366655</v>
       </c>
       <c r="K39" t="n">
-        <v>297.5279077697879</v>
+        <v>168.0354432859447</v>
       </c>
       <c r="L39" t="n">
-        <v>479.4600572923425</v>
+        <v>717.0995346589239</v>
       </c>
       <c r="M39" t="n">
-        <v>1146.494450307146</v>
+        <v>1328.441631532618</v>
       </c>
       <c r="N39" t="n">
-        <v>1813.52884332195</v>
+        <v>1995.476024547421</v>
       </c>
       <c r="O39" t="n">
-        <v>2411.949385184311</v>
+        <v>2203.972870325821</v>
       </c>
       <c r="P39" t="n">
-        <v>2559.953419084819</v>
+        <v>2351.976904226328</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.970999799081</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>203.4356724833133</v>
+        <v>350.7042275078146</v>
       </c>
       <c r="C40" t="n">
-        <v>181.7680445799077</v>
+        <v>231.2454469588773</v>
       </c>
       <c r="D40" t="n">
-        <v>178.9199601920733</v>
+        <v>81.12880754654157</v>
       </c>
       <c r="E40" t="n">
-        <v>178.2754216341815</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="F40" t="n">
-        <v>178.2754216341815</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="G40" t="n">
-        <v>157.1132406632279</v>
+        <v>59.32208801769615</v>
       </c>
       <c r="H40" t="n">
-        <v>151.6929217780412</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I40" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J40" t="n">
-        <v>53.90176913250938</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="K40" t="n">
         <v>175.0031963795616</v>
@@ -7339,10 +7339,10 @@
         <v>385.497764096631</v>
       </c>
       <c r="M40" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325999</v>
       </c>
       <c r="N40" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640665</v>
       </c>
       <c r="O40" t="n">
         <v>1048.552195263982</v>
@@ -7360,22 +7360,22 @@
         <v>1155.644451873024</v>
       </c>
       <c r="T40" t="n">
-        <v>930.7677209518072</v>
+        <v>1078.036275976309</v>
       </c>
       <c r="U40" t="n">
-        <v>788.8937054999426</v>
+        <v>936.162260524444</v>
       </c>
       <c r="V40" t="n">
-        <v>681.4777723185571</v>
+        <v>828.7463273430585</v>
       </c>
       <c r="W40" t="n">
-        <v>392.0606022815965</v>
+        <v>686.5977123305992</v>
       </c>
       <c r="X40" t="n">
-        <v>311.3396064080804</v>
+        <v>605.8767164570831</v>
       </c>
       <c r="Y40" t="n">
-        <v>237.8155822890517</v>
+        <v>532.3526923380543</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>1425.19033990825</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100901</v>
+        <v>992.4992344100906</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363473</v>
+        <v>753.9795368363476</v>
       </c>
       <c r="F41" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712413</v>
       </c>
       <c r="G41" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J41" t="n">
-        <v>107.7947583065976</v>
+        <v>107.7947583065977</v>
       </c>
       <c r="K41" t="n">
-        <v>239.3048970082916</v>
+        <v>560.2088554537449</v>
       </c>
       <c r="L41" t="n">
-        <v>439.3566148476195</v>
+        <v>1173.745175698019</v>
       </c>
       <c r="M41" t="n">
-        <v>1048.722738392178</v>
+        <v>1428.010695077738</v>
       </c>
       <c r="N41" t="n">
-        <v>1311.71634808071</v>
+        <v>1691.00430476627</v>
       </c>
       <c r="O41" t="n">
-        <v>1923.710674291496</v>
+        <v>2109.731325188575</v>
       </c>
       <c r="P41" t="n">
-        <v>2408.359289815719</v>
+        <v>2594.379940712798</v>
       </c>
       <c r="Q41" t="n">
-        <v>2695.08845662547</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R41" t="n">
         <v>2695.08845662547</v>
@@ -7439,22 +7439,22 @@
         <v>2695.08845662547</v>
       </c>
       <c r="T41" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U41" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V41" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381373</v>
       </c>
       <c r="W41" t="n">
-        <v>2133.589605135759</v>
+        <v>2133.58960513576</v>
       </c>
       <c r="X41" t="n">
         <v>1907.392401899181</v>
       </c>
       <c r="Y41" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>92.57422485256288</v>
       </c>
       <c r="I42" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J42" t="n">
         <v>192.0123423106713</v>
       </c>
       <c r="K42" t="n">
-        <v>554.6861529154022</v>
+        <v>292.8655682729494</v>
       </c>
       <c r="L42" t="n">
-        <v>736.6183024379568</v>
+        <v>841.9296596459286</v>
       </c>
       <c r="M42" t="n">
-        <v>968.2814079179295</v>
+        <v>1353.349145000768</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.315800932733</v>
+        <v>1605.552328463459</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.694729372283</v>
+        <v>2203.972870325821</v>
       </c>
       <c r="P42" t="n">
         <v>2351.976904226328</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>497.972782532316</v>
+        <v>105.6445198377816</v>
       </c>
       <c r="C43" t="n">
-        <v>476.3051546289105</v>
+        <v>83.976891934376</v>
       </c>
       <c r="D43" t="n">
-        <v>347.6129589939262</v>
+        <v>81.12880754654158</v>
       </c>
       <c r="E43" t="n">
-        <v>346.9684204360344</v>
+        <v>80.48426898864977</v>
       </c>
       <c r="F43" t="n">
-        <v>346.9684204360344</v>
+        <v>80.48426898864977</v>
       </c>
       <c r="G43" t="n">
-        <v>325.8062394650808</v>
+        <v>59.32208801769616</v>
       </c>
       <c r="H43" t="n">
-        <v>173.1173655553927</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K43" t="n">
         <v>175.0031963795616</v>
@@ -7576,10 +7576,10 @@
         <v>385.497764096631</v>
       </c>
       <c r="M43" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325999</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640665</v>
       </c>
       <c r="O43" t="n">
         <v>1048.552195263982</v>
@@ -7597,22 +7597,22 @@
         <v>1155.644451873024</v>
       </c>
       <c r="T43" t="n">
-        <v>1078.036275976309</v>
+        <v>930.7677209518072</v>
       </c>
       <c r="U43" t="n">
-        <v>936.162260524444</v>
+        <v>788.8937054999426</v>
       </c>
       <c r="V43" t="n">
-        <v>828.7463273430585</v>
+        <v>681.4777723185571</v>
       </c>
       <c r="W43" t="n">
-        <v>686.5977123305993</v>
+        <v>441.5380046605662</v>
       </c>
       <c r="X43" t="n">
-        <v>605.8767164570833</v>
+        <v>213.5484537625488</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.3526923380545</v>
+        <v>140.02442964352</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D44" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100901</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363471</v>
+        <v>753.9795368363473</v>
       </c>
       <c r="F44" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712414</v>
       </c>
       <c r="G44" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H44" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I44" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J44" t="n">
-        <v>107.7947583065976</v>
+        <v>107.7947583065977</v>
       </c>
       <c r="K44" t="n">
-        <v>560.2088554537447</v>
+        <v>560.2088554537449</v>
       </c>
       <c r="L44" t="n">
         <v>1173.745175698019</v>
       </c>
       <c r="M44" t="n">
-        <v>1428.010695077737</v>
+        <v>1428.010695077738</v>
       </c>
       <c r="N44" t="n">
-        <v>2095.045088092541</v>
+        <v>2095.045088092542</v>
       </c>
       <c r="O44" t="n">
-        <v>2452.483236134569</v>
+        <v>2330.04723485321</v>
       </c>
       <c r="P44" t="n">
-        <v>2618.551130569025</v>
+        <v>2594.379940712798</v>
       </c>
       <c r="Q44" t="n">
-        <v>2695.08845662547</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R44" t="n">
         <v>2695.08845662547</v>
@@ -7679,19 +7679,19 @@
         <v>2629.275777544688</v>
       </c>
       <c r="U44" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V44" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W44" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X44" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>92.57422485256288</v>
       </c>
       <c r="I45" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J45" t="n">
         <v>67.18221732366655</v>
       </c>
       <c r="K45" t="n">
-        <v>168.0354432859446</v>
+        <v>429.8560279283975</v>
       </c>
       <c r="L45" t="n">
-        <v>717.0995346589237</v>
+        <v>611.788177450952</v>
       </c>
       <c r="M45" t="n">
-        <v>1384.133927673728</v>
+        <v>1013.16349057908</v>
       </c>
       <c r="N45" t="n">
-        <v>1636.337111136418</v>
+        <v>1680.197883593883</v>
       </c>
       <c r="O45" t="n">
-        <v>2234.75765299878</v>
+        <v>1888.694729372283</v>
       </c>
       <c r="P45" t="n">
-        <v>2382.761686899288</v>
+        <v>2351.976904226328</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.970999799081</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>350.7042275078146</v>
+        <v>252.9130748622829</v>
       </c>
       <c r="C46" t="n">
-        <v>329.036599604409</v>
+        <v>231.2454469588773</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1885152165747</v>
+        <v>228.3973625710429</v>
       </c>
       <c r="E46" t="n">
-        <v>325.5439766586829</v>
+        <v>80.48426898864977</v>
       </c>
       <c r="F46" t="n">
-        <v>325.5439766586829</v>
+        <v>80.48426898864977</v>
       </c>
       <c r="G46" t="n">
-        <v>157.113240663228</v>
+        <v>59.32208801769616</v>
       </c>
       <c r="H46" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I46" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J46" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K46" t="n">
         <v>175.0031963795616</v>
@@ -7813,10 +7813,10 @@
         <v>385.497764096631</v>
       </c>
       <c r="M46" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325999</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640665</v>
       </c>
       <c r="O46" t="n">
         <v>1048.552195263982</v>
@@ -7831,25 +7831,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S46" t="n">
-        <v>1155.644451873024</v>
+        <v>1057.853299227493</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.036275976309</v>
+        <v>980.2451233307771</v>
       </c>
       <c r="U46" t="n">
-        <v>936.162260524444</v>
+        <v>691.1025528544112</v>
       </c>
       <c r="V46" t="n">
-        <v>828.7463273430585</v>
+        <v>583.6866196730256</v>
       </c>
       <c r="W46" t="n">
-        <v>539.3291573060978</v>
+        <v>441.5380046605662</v>
       </c>
       <c r="X46" t="n">
-        <v>458.6081614325818</v>
+        <v>360.8170087870502</v>
       </c>
       <c r="Y46" t="n">
-        <v>385.084137313553</v>
+        <v>287.2929846680213</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>322.1905410838073</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>217.6531592060551</v>
       </c>
       <c r="P11" t="n">
-        <v>60.86138114498027</v>
+        <v>189.81410631185</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>271.259217022332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.672866058470476</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.58197211239684</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>55.58437101770812</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>368.7865600639894</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>121.0383656056944</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>41.30107658386413</v>
+        <v>41.30107658386407</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>196.6138250016099</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>370.8697276569471</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.5844426481221</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,16 +9164,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>284.4787017791382</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>342.1696091027843</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>359.9703072268045</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>41.30107658386413</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>305.2339713943768</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>391.617281174844</v>
       </c>
       <c r="N18" t="n">
-        <v>360.682929492962</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>200.2656429006637</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>355.3144402997547</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>360.682929492962</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>124.5203212885603</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>372.2462401833433</v>
+        <v>357.1791102924896</v>
       </c>
       <c r="N23" t="n">
-        <v>363.4299873461583</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>360.9628054849204</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>41.30107658386413</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>106.6105809787305</v>
       </c>
       <c r="M24" t="n">
-        <v>374.3818649150504</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>113.3862857130378</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>325.701276372941</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>93.51651551801933</v>
+        <v>124.742832411887</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10115,13 +10115,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>374.1174941722608</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>181.0200044899863</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>41.30107658386413</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>49.34328177509502</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>174.0801728537114</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.8016290021544</v>
+        <v>56.83954256379707</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,10 +10358,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>41.30107658386413</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>174.0801728537112</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>93.51651551801933</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>416.9382561970555</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>408.1220033598705</v>
+        <v>408.1220033598706</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>315.5825592538258</v>
       </c>
       <c r="Q35" t="n">
-        <v>30.87988494113894</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.30107658386413</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>93.51651551801911</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>174.1967209897168</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>70.03597246761754</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>416.9382561970556</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>150.9945506641545</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>41.30107658386413</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>4.709433835190481</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>439.7689773079099</v>
+        <v>383.5141327209301</v>
       </c>
       <c r="N39" t="n">
-        <v>419.0214237900132</v>
+        <v>419.0214237900134</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>358.6874789543838</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>185.5806804662994</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.30107658386413</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>282.5822018938051</v>
       </c>
       <c r="N42" t="n">
-        <v>419.0214237900135</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>45.33543703146481</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>408.1220033598707</v>
+        <v>408.1220033598708</v>
       </c>
       <c r="O44" t="n">
-        <v>123.6727285670301</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>99.25738527791157</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>41.30107658386413</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>439.7689773079102</v>
+        <v>171.4264723718735</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>419.0214237900135</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>178.9815476621526</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D11" t="n">
-        <v>203.8604047292619</v>
+        <v>275.1143078164005</v>
       </c>
       <c r="E11" t="n">
-        <v>302.3616362679792</v>
+        <v>302.3616362679793</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>332.9594913636452</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356466</v>
+        <v>28.3902629313617</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997371</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5549581157773</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.1835246658523</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131304</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.1651078591981</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>285.704157966725</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.3616362679793</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.4915937356467</v>
+        <v>222.616664061112</v>
       </c>
       <c r="I14" t="n">
-        <v>10.95970581990546</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>13.42632660718911</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>13.42632660718869</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>13.42632660718868</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>13.42632660718843</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1058584.523621881</v>
+        <v>1058584.523621882</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>327710.5354868154</v>
       </c>
       <c r="C2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868153</v>
       </c>
       <c r="D2" t="n">
         <v>327710.5354868153</v>
@@ -26323,10 +26323,10 @@
         <v>271104.0490822049</v>
       </c>
       <c r="F2" t="n">
-        <v>292183.1136614871</v>
+        <v>292183.1136614872</v>
       </c>
       <c r="G2" t="n">
-        <v>327989.2137065406</v>
+        <v>327989.2137065405</v>
       </c>
       <c r="H2" t="n">
         <v>327989.2137065405</v>
@@ -26338,22 +26338,22 @@
         <v>328416.7079457135</v>
       </c>
       <c r="K2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.707945713</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="N2" t="n">
+        <v>328416.7079457131</v>
+      </c>
+      <c r="O2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="O2" t="n">
-        <v>328416.7079457133</v>
-      </c>
       <c r="P2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>753993.2266122003</v>
+        <v>753993.2266122004</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921629</v>
+        <v>48878.85800921642</v>
       </c>
       <c r="G3" t="n">
-        <v>63654.98704342606</v>
+        <v>63654.98704342602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>920.0015970187211</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542154</v>
+        <v>75818.20182542157</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.987043426</v>
+        <v>63654.98704342602</v>
       </c>
       <c r="M3" t="n">
         <v>105300.8148108541</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583636</v>
+        <v>41782.42831583646</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26454,10 +26454,10 @@
         <v>204734.8981645465</v>
       </c>
       <c r="O4" t="n">
-        <v>204734.8981645466</v>
+        <v>204734.8981645465</v>
       </c>
       <c r="P4" t="n">
-        <v>204734.8981645466</v>
+        <v>204734.8981645465</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49400.51786652593</v>
+        <v>49400.51786652592</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882795</v>
+        <v>59772.47212882798</v>
       </c>
       <c r="G5" t="n">
         <v>66461.7360110202</v>
@@ -26488,10 +26488,10 @@
         <v>66461.7360110202</v>
       </c>
       <c r="I5" t="n">
-        <v>66672.08456227691</v>
+        <v>66672.08456227693</v>
       </c>
       <c r="J5" t="n">
-        <v>77601.21311784603</v>
+        <v>77601.21311784605</v>
       </c>
       <c r="K5" t="n">
         <v>77601.21311784603</v>
@@ -26503,13 +26503,13 @@
         <v>68267.74432235741</v>
       </c>
       <c r="N5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235742</v>
       </c>
       <c r="O5" t="n">
-        <v>68267.74432235742</v>
+        <v>68267.74432235744</v>
       </c>
       <c r="P5" t="n">
-        <v>68267.74432235742</v>
+        <v>68267.74432235744</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142190.9442324328</v>
+        <v>-142195.3578103009</v>
       </c>
       <c r="C6" t="n">
-        <v>-142190.9442324327</v>
+        <v>-142195.3578103009</v>
       </c>
       <c r="D6" t="n">
-        <v>-142190.9442324328</v>
+        <v>-142195.357810301</v>
       </c>
       <c r="E6" t="n">
-        <v>-668992.9814336648</v>
+        <v>-669351.185551562</v>
       </c>
       <c r="F6" t="n">
-        <v>27703.11485161314</v>
+        <v>27476.65488733667</v>
       </c>
       <c r="G6" t="n">
-        <v>-8853.754303789261</v>
+        <v>-8856.426142784121</v>
       </c>
       <c r="H6" t="n">
-        <v>54801.2327396367</v>
+        <v>54798.56090064185</v>
       </c>
       <c r="I6" t="n">
-        <v>53710.50426306068</v>
+        <v>53710.50426306066</v>
       </c>
       <c r="J6" t="n">
-        <v>-19665.6364992462</v>
+        <v>-19665.63649924638</v>
       </c>
       <c r="K6" t="n">
-        <v>56152.56532617504</v>
+        <v>56152.56532617545</v>
       </c>
       <c r="L6" t="n">
-        <v>-7502.421717251214</v>
+        <v>-7502.421717250778</v>
       </c>
       <c r="M6" t="n">
-        <v>-49886.74935204475</v>
+        <v>-49886.74935204454</v>
       </c>
       <c r="N6" t="n">
-        <v>13631.63714297314</v>
+        <v>13631.63714297269</v>
       </c>
       <c r="O6" t="n">
-        <v>55414.06545880933</v>
+        <v>55414.06545880943</v>
       </c>
       <c r="P6" t="n">
-        <v>55414.06545880933</v>
+        <v>55414.06545880929</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F2" t="n">
         <v>79.56873380428252</v>
       </c>
       <c r="G2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="L2" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M2" t="n">
         <v>145.7958694742563</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="F3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="G3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="H3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="I3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="J3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="K3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="L3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="M3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="N3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="O3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="P3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249124</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="F4" t="n">
-        <v>625.6204180233011</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="G4" t="n">
-        <v>625.6204180233011</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="H4" t="n">
-        <v>625.6204180233011</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426551</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="J4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532039</v>
       </c>
       <c r="K4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532034</v>
       </c>
       <c r="L4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532034</v>
       </c>
       <c r="M4" t="n">
-        <v>673.7721141563673</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="N4" t="n">
-        <v>673.7721141563673</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="O4" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="P4" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563676</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M2" t="n">
-        <v>66.2271356699738</v>
+        <v>66.22713566997373</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249124</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="F4" t="n">
-        <v>170.5913529983887</v>
+        <v>170.591352998389</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>3.459680119353948</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105484</v>
+        <v>289.7761914105486</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280761</v>
+        <v>209.9448896280763</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983887</v>
+        <v>170.5913529983891</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>455.0290650249124</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983887</v>
+        <v>170.591352998389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="C11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="D11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="E11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="G11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="H11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="I11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="T11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="U11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="V11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="W11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="X11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="C12" t="n">
-        <v>79.56873380428257</v>
+        <v>1.248480811746248</v>
       </c>
       <c r="D12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="G12" t="n">
-        <v>1.24848081174531</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="H12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S12" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="X12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="C13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="D13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="E13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="G13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="H13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="I13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="J13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="K13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="L13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="M13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="N13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="O13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="R13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="S13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="T13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="U13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="W13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="X13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
     </row>
     <row r="14">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.04208629079616</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>63.32508893222521</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>79.56873380428252</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I17" t="n">
         <v>103.5115023046919</v>
@@ -28615,22 +28615,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="18">
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>63.32508893222527</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>63.32508893222607</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,22 +28719,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>88.04904106214434</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H19" t="n">
         <v>151.1619851705912</v>
@@ -28743,7 +28743,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S19" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W19" t="n">
-        <v>159.1374676085651</v>
+        <v>105.90509661098</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I20" t="n">
         <v>103.5115023046919</v>
@@ -28852,22 +28852,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="21">
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>101.6108200950782</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28573116285295</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.988926598084447</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>55.33616233414168</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.274540614493</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H22" t="n">
         <v>151.1619851705912</v>
@@ -28980,7 +28980,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>105.9050966109801</v>
       </c>
       <c r="X22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I23" t="n">
         <v>103.5115023046919</v>
@@ -29089,22 +29089,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>49.89876232503727</v>
+        <v>88.18449348788934</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285295</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29208,7 +29208,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H25" t="n">
         <v>151.1619851705912</v>
@@ -29217,7 +29217,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29247,22 +29247,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U25" t="n">
-        <v>159.1374676085651</v>
+        <v>95.38310202062726</v>
       </c>
       <c r="V25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X25" t="n">
-        <v>111.2745406144928</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="L28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="O28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="P28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="R28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="L34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="N34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="O34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="P34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.5687338042831</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="R34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="S34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J37" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,13 +30195,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="U37" t="n">
-        <v>48.98262835517968</v>
+        <v>48.98262835518014</v>
       </c>
       <c r="V37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>145.7958694742563</v>
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.7958694742563</v>
+        <v>48.9826283551799</v>
       </c>
       <c r="D40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>145.7958694742563</v>
@@ -30399,10 +30399,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I40" t="n">
-        <v>21.210199339578</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="U40" t="n">
         <v>145.7958694742563</v>
@@ -30441,7 +30441,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X40" t="n">
         <v>145.7958694742563</v>
@@ -30621,7 +30621,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="D43" t="n">
-        <v>21.21019933957788</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="E43" t="n">
         <v>145.7958694742563</v>
@@ -30633,13 +30633,13 @@
         <v>145.7958694742563</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,7 +30669,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T43" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>145.7958694742563</v>
@@ -30678,10 +30678,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="W43" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835518003</v>
       </c>
       <c r="X43" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>145.7958694742563</v>
@@ -30861,22 +30861,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="E46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="H46" t="n">
-        <v>48.98262835517977</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="I46" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,19 +30903,19 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S46" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835518025</v>
       </c>
       <c r="T46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="U46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X46" t="n">
         <v>145.7958694742563</v>
@@ -31759,28 +31759,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J11" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K11" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L11" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M11" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N11" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O11" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P11" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R11" t="n">
         <v>174.284461230268</v>
@@ -31792,7 +31792,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J12" t="n">
         <v>140.2522207991487</v>
@@ -31847,13 +31847,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M12" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N12" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O12" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P12" t="n">
         <v>283.4734315562571</v>
@@ -31862,7 +31862,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R12" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S12" t="n">
         <v>27.57384314026248</v>
@@ -31871,7 +31871,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31917,16 +31917,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J13" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K13" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L13" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M13" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N13" t="n">
         <v>190.4502029050811</v>
@@ -31935,22 +31935,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P13" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q13" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R13" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S13" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T13" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H14" t="n">
         <v>28.41447457583796</v>
@@ -31996,40 +31996,40 @@
         <v>106.964387265714</v>
       </c>
       <c r="J14" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K14" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L14" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M14" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N14" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O14" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P14" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q14" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R14" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T14" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J15" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L15" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M15" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N15" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O15" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P15" t="n">
         <v>283.4734315562571</v>
@@ -32099,16 +32099,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R15" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S15" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T15" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H16" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I16" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K16" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L16" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M16" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N16" t="n">
         <v>190.4502029050811</v>
       </c>
       <c r="O16" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P16" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q16" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R16" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S16" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T16" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,28 +32233,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J17" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K17" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L17" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M17" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N17" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O17" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P17" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q17" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R17" t="n">
         <v>174.284461230268</v>
@@ -32266,7 +32266,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I18" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J18" t="n">
         <v>140.2522207991487</v>
@@ -32321,13 +32321,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M18" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N18" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O18" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P18" t="n">
         <v>283.4734315562571</v>
@@ -32336,7 +32336,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R18" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S18" t="n">
         <v>27.57384314026248</v>
@@ -32345,7 +32345,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,16 +32391,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J19" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K19" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L19" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M19" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N19" t="n">
         <v>190.4502029050811</v>
@@ -32409,22 +32409,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P19" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q19" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R19" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S19" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T19" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,28 +32470,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J20" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K20" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L20" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M20" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N20" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O20" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P20" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q20" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R20" t="n">
         <v>174.284461230268</v>
@@ -32503,7 +32503,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I21" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J21" t="n">
         <v>140.2522207991487</v>
@@ -32558,13 +32558,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M21" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N21" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O21" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P21" t="n">
         <v>283.4734315562571</v>
@@ -32573,7 +32573,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R21" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S21" t="n">
         <v>27.57384314026248</v>
@@ -32582,7 +32582,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,16 +32628,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J22" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K22" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L22" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M22" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N22" t="n">
         <v>190.4502029050811</v>
@@ -32646,22 +32646,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P22" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q22" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R22" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S22" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T22" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,28 +32707,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J23" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K23" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L23" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M23" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N23" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O23" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P23" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q23" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R23" t="n">
         <v>174.284461230268</v>
@@ -32740,7 +32740,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I24" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J24" t="n">
         <v>140.2522207991487</v>
@@ -32795,13 +32795,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M24" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N24" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O24" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P24" t="n">
         <v>283.4734315562571</v>
@@ -32810,7 +32810,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R24" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S24" t="n">
         <v>27.57384314026248</v>
@@ -32819,7 +32819,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,16 +32865,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J25" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K25" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L25" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M25" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N25" t="n">
         <v>190.4502029050811</v>
@@ -32883,22 +32883,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P25" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q25" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R25" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S25" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T25" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,28 +32944,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J26" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N26" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O26" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q26" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R26" t="n">
         <v>174.284461230268</v>
@@ -32977,7 +32977,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J27" t="n">
         <v>140.2522207991487</v>
@@ -33032,13 +33032,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M27" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N27" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O27" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P27" t="n">
         <v>283.4734315562571</v>
@@ -33047,7 +33047,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R27" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S27" t="n">
         <v>27.57384314026248</v>
@@ -33056,7 +33056,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,16 +33102,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K28" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L28" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M28" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N28" t="n">
         <v>190.4502029050811</v>
@@ -33120,22 +33120,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P28" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q28" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R28" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S28" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T28" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,28 +33181,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J29" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K29" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L29" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M29" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N29" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O29" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P29" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q29" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R29" t="n">
         <v>174.284461230268</v>
@@ -33214,7 +33214,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I30" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J30" t="n">
         <v>140.2522207991487</v>
@@ -33269,13 +33269,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M30" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N30" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O30" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P30" t="n">
         <v>283.4734315562571</v>
@@ -33284,7 +33284,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R30" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S30" t="n">
         <v>27.57384314026248</v>
@@ -33293,7 +33293,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,16 +33339,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J31" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K31" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L31" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M31" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N31" t="n">
         <v>190.4502029050811</v>
@@ -33357,22 +33357,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P31" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q31" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R31" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S31" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T31" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,28 +33418,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J32" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K32" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L32" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M32" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N32" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O32" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P32" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q32" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R32" t="n">
         <v>174.284461230268</v>
@@ -33451,7 +33451,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I33" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J33" t="n">
         <v>140.2522207991487</v>
@@ -33506,13 +33506,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M33" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N33" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O33" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P33" t="n">
         <v>283.4734315562571</v>
@@ -33521,7 +33521,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R33" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S33" t="n">
         <v>27.57384314026248</v>
@@ -33530,7 +33530,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,16 +33576,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J34" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K34" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L34" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M34" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N34" t="n">
         <v>190.4502029050811</v>
@@ -33594,22 +33594,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P34" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q34" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R34" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S34" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T34" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,28 +33655,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J35" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K35" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L35" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M35" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N35" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O35" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P35" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q35" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R35" t="n">
         <v>174.284461230268</v>
@@ -33688,7 +33688,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I36" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J36" t="n">
         <v>140.2522207991487</v>
@@ -33743,13 +33743,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M36" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N36" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O36" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P36" t="n">
         <v>283.4734315562571</v>
@@ -33758,7 +33758,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R36" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S36" t="n">
         <v>27.57384314026248</v>
@@ -33767,7 +33767,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,16 +33813,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J37" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K37" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L37" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M37" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N37" t="n">
         <v>190.4502029050811</v>
@@ -33831,22 +33831,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P37" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q37" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R37" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S37" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T37" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,28 +33892,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J38" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M38" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N38" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O38" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P38" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R38" t="n">
         <v>174.284461230268</v>
@@ -33925,7 +33925,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J39" t="n">
         <v>140.2522207991487</v>
@@ -33980,13 +33980,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M39" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N39" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O39" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P39" t="n">
         <v>283.4734315562571</v>
@@ -33995,7 +33995,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R39" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S39" t="n">
         <v>27.57384314026248</v>
@@ -34004,7 +34004,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,16 +34050,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K40" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L40" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M40" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N40" t="n">
         <v>190.4502029050811</v>
@@ -34068,22 +34068,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P40" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q40" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R40" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S40" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T40" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,28 +34129,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J41" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K41" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L41" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M41" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N41" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O41" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P41" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q41" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R41" t="n">
         <v>174.284461230268</v>
@@ -34162,7 +34162,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I42" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J42" t="n">
         <v>140.2522207991487</v>
@@ -34217,13 +34217,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M42" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N42" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O42" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P42" t="n">
         <v>283.4734315562571</v>
@@ -34232,7 +34232,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R42" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S42" t="n">
         <v>27.57384314026248</v>
@@ -34241,7 +34241,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,16 +34287,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K43" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L43" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M43" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N43" t="n">
         <v>190.4502029050811</v>
@@ -34305,22 +34305,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P43" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q43" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R43" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S43" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T43" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,28 +34366,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J44" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K44" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L44" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M44" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N44" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O44" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P44" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q44" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R44" t="n">
         <v>174.284461230268</v>
@@ -34399,7 +34399,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I45" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J45" t="n">
         <v>140.2522207991487</v>
@@ -34454,13 +34454,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M45" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N45" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O45" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P45" t="n">
         <v>283.4734315562571</v>
@@ -34469,7 +34469,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R45" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S45" t="n">
         <v>27.57384314026248</v>
@@ -34478,7 +34478,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,16 +34524,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K46" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L46" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M46" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N46" t="n">
         <v>190.4502029050811</v>
@@ -34542,22 +34542,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P46" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q46" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R46" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S46" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T46" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K11" t="n">
-        <v>455.0290650249124</v>
+        <v>132.8385239411051</v>
       </c>
       <c r="L11" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N11" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O11" t="n">
-        <v>237.3759058188571</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="P11" t="n">
-        <v>228.6067290585714</v>
+        <v>357.5594542254413</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.31043036004556</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R11" t="n">
-        <v>24.41534328911831</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.41459413248197</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K12" t="n">
         <v>366.3371824290211</v>
       </c>
       <c r="L12" t="n">
-        <v>455.0290650249124</v>
+        <v>183.7698480025804</v>
       </c>
       <c r="M12" t="n">
-        <v>234.0031368484573</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N12" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O12" t="n">
         <v>210.6028745236358</v>
       </c>
       <c r="P12" t="n">
-        <v>149.4990241419268</v>
+        <v>153.1718902003974</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.0946799045807</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076934</v>
+        <v>74.19928980076929</v>
       </c>
       <c r="K13" t="n">
-        <v>201.893407791204</v>
+        <v>201.8934077912039</v>
       </c>
       <c r="L13" t="n">
         <v>292.1895092760699</v>
@@ -35586,7 +35586,7 @@
         <v>227.3700459622549</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413281</v>
+        <v>97.62084245413277</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>223.5339779741831</v>
+        <v>54.43736280210942</v>
       </c>
       <c r="K14" t="n">
-        <v>456.9839365122698</v>
+        <v>132.8385239411052</v>
       </c>
       <c r="L14" t="n">
-        <v>257.6568132796555</v>
+        <v>202.0724422619476</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8338579593118</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="N14" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964969</v>
       </c>
       <c r="O14" t="n">
-        <v>237.3759058188571</v>
+        <v>618.1760870816026</v>
       </c>
       <c r="P14" t="n">
-        <v>489.5440560850738</v>
+        <v>288.7837135192857</v>
       </c>
       <c r="Q14" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.41459413248197</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K15" t="n">
-        <v>101.8719454164425</v>
+        <v>101.8719454164426</v>
       </c>
       <c r="L15" t="n">
-        <v>554.6101933060395</v>
+        <v>183.7698480025805</v>
       </c>
       <c r="M15" t="n">
-        <v>430.6169618500672</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N15" t="n">
-        <v>254.750690366354</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="O15" t="n">
         <v>604.4651938003653</v>
       </c>
       <c r="P15" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.51270779218387</v>
+        <v>246.0971504403061</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.19928980076928</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K16" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M16" t="n">
         <v>314.2415936385945</v>
@@ -35820,10 +35820,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P16" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.62084245413276</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K17" t="n">
-        <v>417.3172257202432</v>
+        <v>132.8385239411051</v>
       </c>
       <c r="L17" t="n">
-        <v>619.7336568123978</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8338579593118</v>
+        <v>599.0034670620962</v>
       </c>
       <c r="N17" t="n">
-        <v>265.6501107964967</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="O17" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P17" t="n">
-        <v>167.7453479135912</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.31043036004556</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248197</v>
       </c>
       <c r="K18" t="n">
         <v>366.3371824290211</v>
       </c>
       <c r="L18" t="n">
-        <v>183.7698480025804</v>
+        <v>489.0038193969572</v>
       </c>
       <c r="M18" t="n">
-        <v>234.0031368484573</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="N18" t="n">
-        <v>615.433619859316</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O18" t="n">
         <v>210.6028745236358</v>
       </c>
       <c r="P18" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q18" t="n">
-        <v>259.589995528033</v>
+        <v>49.5127077921839</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M19" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N19" t="n">
         <v>234.5823752843097</v>
@@ -36060,7 +36060,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>223.5339779741831</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L20" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8338579593118</v>
+        <v>457.0995008599756</v>
       </c>
       <c r="N20" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O20" t="n">
-        <v>592.6903461186118</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P20" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q20" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R20" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L21" t="n">
-        <v>544.4527774955424</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M21" t="n">
-        <v>234.0031368484573</v>
+        <v>358.5234581370177</v>
       </c>
       <c r="N21" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O21" t="n">
-        <v>210.6028745236358</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P21" t="n">
-        <v>467.961792781864</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q21" t="n">
-        <v>259.589995528033</v>
+        <v>49.5127077921839</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M22" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N22" t="n">
         <v>234.5823752843097</v>
@@ -36297,7 +36297,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K23" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L23" t="n">
-        <v>202.0724422619474</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M23" t="n">
-        <v>629.0800981426551</v>
+        <v>614.0129682518015</v>
       </c>
       <c r="N23" t="n">
-        <v>629.0800981426551</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O23" t="n">
-        <v>598.3387113037776</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P23" t="n">
-        <v>167.7453479135912</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.31043036004556</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248197</v>
       </c>
       <c r="K24" t="n">
         <v>366.3371824290211</v>
       </c>
       <c r="L24" t="n">
-        <v>183.7698480025804</v>
+        <v>290.3804289813109</v>
       </c>
       <c r="M24" t="n">
-        <v>608.3850017635077</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N24" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O24" t="n">
-        <v>210.6028745236358</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P24" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q24" t="n">
         <v>259.589995528033</v>
@@ -36522,7 +36522,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M25" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N25" t="n">
         <v>234.5823752843097</v>
@@ -36534,7 +36534,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>54.43736280210933</v>
+        <v>167.8236485151471</v>
       </c>
       <c r="K26" t="n">
         <v>456.9839365122698</v>
       </c>
       <c r="L26" t="n">
-        <v>619.7336568123978</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M26" t="n">
-        <v>706.3473914521443</v>
+        <v>706.3473914521444</v>
       </c>
       <c r="N26" t="n">
-        <v>591.3513871694378</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O26" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q26" t="n">
-        <v>77.31043036004556</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R26" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248197</v>
       </c>
       <c r="K27" t="n">
         <v>366.3371824290211</v>
       </c>
       <c r="L27" t="n">
-        <v>554.6101933060395</v>
+        <v>183.7698480025804</v>
       </c>
       <c r="M27" t="n">
-        <v>234.0031368484573</v>
+        <v>699.7082005984573</v>
       </c>
       <c r="N27" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O27" t="n">
-        <v>304.1193900416551</v>
+        <v>335.3457069355229</v>
       </c>
       <c r="P27" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q27" t="n">
         <v>259.589995528033</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076928</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K28" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M28" t="n">
         <v>314.2415936385945</v>
@@ -36768,10 +36768,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P28" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413276</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.5339779741831</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K29" t="n">
         <v>456.9839365122698</v>
       </c>
       <c r="L29" t="n">
-        <v>619.7336568123978</v>
+        <v>576.1899364342083</v>
       </c>
       <c r="M29" t="n">
-        <v>706.3473914521443</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N29" t="n">
-        <v>265.6501107964967</v>
+        <v>702.997035208481</v>
       </c>
       <c r="O29" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P29" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q29" t="n">
-        <v>258.3304348500318</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.75787590757698</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K30" t="n">
-        <v>366.3371824290211</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L30" t="n">
         <v>183.7698480025804</v>
       </c>
       <c r="M30" t="n">
-        <v>699.7082005984572</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N30" t="n">
-        <v>254.750690366354</v>
+        <v>734.0930647099076</v>
       </c>
       <c r="O30" t="n">
         <v>604.4651938003653</v>
       </c>
       <c r="P30" t="n">
-        <v>149.4990241419268</v>
+        <v>323.5791969956383</v>
       </c>
       <c r="Q30" t="n">
         <v>259.589995528033</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076934</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K31" t="n">
         <v>201.893407791204</v>
@@ -37008,7 +37008,7 @@
         <v>227.3700459622549</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.62084245413281</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>192.2389918042637</v>
+        <v>111.2769053659065</v>
       </c>
       <c r="K32" t="n">
         <v>456.9839365122698</v>
       </c>
       <c r="L32" t="n">
-        <v>619.7336568123978</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M32" t="n">
-        <v>706.3473914521443</v>
+        <v>706.3473914521444</v>
       </c>
       <c r="N32" t="n">
-        <v>265.6501107964967</v>
+        <v>702.997035208481</v>
       </c>
       <c r="O32" t="n">
-        <v>618.1760870816025</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P32" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q32" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K33" t="n">
-        <v>275.9521182701537</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L33" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M33" t="n">
-        <v>234.0031368484573</v>
+        <v>327.5196523664767</v>
       </c>
       <c r="N33" t="n">
-        <v>734.0930647099076</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O33" t="n">
-        <v>604.4651938003653</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P33" t="n">
-        <v>149.4990241419268</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q33" t="n">
         <v>259.589995528033</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076926</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K34" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M34" t="n">
         <v>314.2415936385945</v>
@@ -37242,10 +37242,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P34" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.62084245413334</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>54.43736280210933</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K35" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L35" t="n">
-        <v>619.7336568123978</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7721141563673</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N35" t="n">
-        <v>673.7721141563673</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="O35" t="n">
-        <v>237.3759058188571</v>
+        <v>618.1760870816025</v>
       </c>
       <c r="P35" t="n">
-        <v>167.7453479135912</v>
+        <v>483.327907167417</v>
       </c>
       <c r="Q35" t="n">
-        <v>108.1903153011845</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K36" t="n">
-        <v>366.3371824290211</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L36" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M36" t="n">
-        <v>234.0031368484573</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N36" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O36" t="n">
-        <v>304.1193900416549</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P36" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q36" t="n">
-        <v>259.589995528033</v>
+        <v>223.7094287819007</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M37" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N37" t="n">
         <v>234.5823752843097</v>
@@ -37482,7 +37482,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>54.43736280210933</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K38" t="n">
-        <v>456.9839365122698</v>
+        <v>202.8744964087226</v>
       </c>
       <c r="L38" t="n">
-        <v>619.7336568123978</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8338579593118</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="N38" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O38" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P38" t="n">
-        <v>318.7398985777456</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q38" t="n">
-        <v>77.31043036004556</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248197</v>
       </c>
       <c r="K39" t="n">
-        <v>106.581379251633</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M39" t="n">
-        <v>673.7721141563673</v>
+        <v>617.5172695693875</v>
       </c>
       <c r="N39" t="n">
-        <v>673.7721141563673</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="O39" t="n">
-        <v>604.4651938003653</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P39" t="n">
-        <v>149.4990241419268</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.51270779218387</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M40" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N40" t="n">
         <v>234.5823752843097</v>
@@ -37719,7 +37719,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K41" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L41" t="n">
-        <v>202.0724422619474</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M41" t="n">
-        <v>615.5213369136956</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N41" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O41" t="n">
-        <v>618.1760870816025</v>
+        <v>422.9565862851566</v>
       </c>
       <c r="P41" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q41" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K42" t="n">
-        <v>366.3371824290211</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L42" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M42" t="n">
-        <v>234.0031368484573</v>
+        <v>516.5853387422625</v>
       </c>
       <c r="N42" t="n">
-        <v>673.7721141563675</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9383115551006</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P42" t="n">
-        <v>467.961792781864</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q42" t="n">
         <v>259.589995528033</v>
@@ -37944,7 +37944,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M43" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N43" t="n">
         <v>234.5823752843097</v>
@@ -37956,7 +37956,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K44" t="n">
         <v>456.9839365122698</v>
       </c>
       <c r="L44" t="n">
-        <v>619.7336568123978</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M44" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N44" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="O44" t="n">
-        <v>361.0486343858873</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P44" t="n">
-        <v>167.7453479135912</v>
+        <v>267.0027331915028</v>
       </c>
       <c r="Q44" t="n">
-        <v>77.31043036004556</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>13.41459413248197</v>
       </c>
       <c r="K45" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L45" t="n">
-        <v>554.6101933060395</v>
+        <v>183.7698480025804</v>
       </c>
       <c r="M45" t="n">
-        <v>673.7721141563675</v>
+        <v>405.4296092203309</v>
       </c>
       <c r="N45" t="n">
-        <v>254.750690366354</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="O45" t="n">
-        <v>604.4651938003653</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P45" t="n">
-        <v>149.4990241419268</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q45" t="n">
-        <v>228.4942554543364</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M46" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N46" t="n">
         <v>234.5823752843097</v>
@@ -38193,7 +38193,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
